--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="1200" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="8140" yWindow="1060" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -150,6 +150,57 @@
   </si>
   <si>
     <t>sleep1day;sleep10day;sleep30day;close</t>
+  </si>
+  <si>
+    <t>eventList</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>条件分歧</t>
+  </si>
+  <si>
+    <t>canSignUp</t>
+  </si>
+  <si>
+    <t>signUpDialog</t>
+  </si>
+  <si>
+    <t>签约对话</t>
+  </si>
+  <si>
+    <t>signUpFailed</t>
+  </si>
+  <si>
+    <t>签约失败对话</t>
+  </si>
+  <si>
+    <t>signUpStart</t>
+  </si>
+  <si>
+    <t>signUpStart;signUpFailed</t>
+  </si>
+  <si>
+    <t>dialog_signup_dialog</t>
+  </si>
+  <si>
+    <t>签约开始</t>
+  </si>
+  <si>
+    <t>dialog_signup_failure_full</t>
+  </si>
+  <si>
+    <t>signUpDialog;signUpWindow</t>
+  </si>
+  <si>
+    <t>signUpWindow</t>
+  </si>
+  <si>
+    <t>签约窗口</t>
+  </si>
+  <si>
+    <t>window</t>
   </si>
 </sst>
 </file>
@@ -559,15 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -727,13 +779,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -741,16 +793,86 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="1060" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="3680" yWindow="1060" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -170,6 +170,9 @@
     <t>签约对话</t>
   </si>
   <si>
+    <t>dialog_signup_start</t>
+  </si>
+  <si>
     <t>signUpFailed</t>
   </si>
   <si>
@@ -179,21 +182,12 @@
     <t>signUpStart</t>
   </si>
   <si>
-    <t>signUpStart;signUpFailed</t>
-  </si>
-  <si>
-    <t>dialog_signup_dialog</t>
-  </si>
-  <si>
     <t>签约开始</t>
   </si>
   <si>
     <t>dialog_signup_failure_full</t>
   </si>
   <si>
-    <t>signUpDialog;signUpWindow</t>
-  </si>
-  <si>
     <t>signUpWindow</t>
   </si>
   <si>
@@ -201,6 +195,114 @@
   </si>
   <si>
     <t>window</t>
+  </si>
+  <si>
+    <t>signUpDialog;signUpWindow;signUpClose</t>
+  </si>
+  <si>
+    <t>signUpSuccess</t>
+  </si>
+  <si>
+    <t>InvestPanel;2;signUpSuccess;signUpFail</t>
+  </si>
+  <si>
+    <t>signUpFail</t>
+  </si>
+  <si>
+    <t>签约成功对话</t>
+  </si>
+  <si>
+    <t>dialog_invest_success</t>
+  </si>
+  <si>
+    <t>dialog_no_enough_money</t>
+  </si>
+  <si>
+    <t>dialog_invest_fail</t>
+  </si>
+  <si>
+    <t>canSignUpMoneyEnough</t>
+  </si>
+  <si>
+    <t>canSignUpMoneyEnough;signUpFailed</t>
+  </si>
+  <si>
+    <t>signUpMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>签约钱不够</t>
+  </si>
+  <si>
+    <t>signUpStart;signUpMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>signUpSuccessDialog</t>
+  </si>
+  <si>
+    <t>签约成功</t>
+  </si>
+  <si>
+    <t>signUpSuccessDialog;close;waitADay;government</t>
+  </si>
+  <si>
+    <t>waitADay</t>
+  </si>
+  <si>
+    <t>等待一天</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>dialog_not_implement_yet</t>
+  </si>
+  <si>
+    <t>功能还没有实现</t>
+  </si>
+  <si>
+    <t>NIY</t>
+  </si>
+  <si>
+    <t>militaryInvest</t>
+  </si>
+  <si>
+    <t>军事投资</t>
+  </si>
+  <si>
+    <t>wannaInvestMilitary</t>
+  </si>
+  <si>
+    <t>想投资军事</t>
+  </si>
+  <si>
+    <t>dalog_wanna_invest</t>
+  </si>
+  <si>
+    <t>canMilitaryInvestMoneyEnough</t>
+  </si>
+  <si>
+    <t>militaryInvestStart;signUpMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>militaryInvestStart</t>
+  </si>
+  <si>
+    <t>军事投资开始</t>
+  </si>
+  <si>
+    <t>militaryWindow;signUpClose</t>
+  </si>
+  <si>
+    <t>militaryWindow</t>
+  </si>
+  <si>
+    <t>军事投资窗口</t>
+  </si>
+  <si>
+    <t>InvestPanel;1;signUpSuccess;signUpFail</t>
+  </si>
+  <si>
+    <t>wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
   </si>
 </sst>
 </file>
@@ -610,17 +712,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,139 +756,139 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -793,86 +896,254 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1060" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="2160" yWindow="1340" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -134,9 +134,6 @@
     <t>关闭窗口</t>
   </si>
   <si>
-    <t>drink;buyDrink;hireSailor;spreadRumor;close</t>
-  </si>
-  <si>
     <t>trade;commerceInvest;commerceInfo;close</t>
   </si>
   <si>
@@ -303,6 +300,279 @@
   </si>
   <si>
     <t>wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
+  </si>
+  <si>
+    <t>hireSailor</t>
+  </si>
+  <si>
+    <t>雇佣水手-是否有船</t>
+  </si>
+  <si>
+    <t>hireSailorNoShip</t>
+  </si>
+  <si>
+    <t>雇佣水手-没有船</t>
+  </si>
+  <si>
+    <t>dialog_no_ship_no_game</t>
+  </si>
+  <si>
+    <t>hireSailorHaveShip</t>
+  </si>
+  <si>
+    <t>hireSailor;hireSailorNoShip</t>
+  </si>
+  <si>
+    <t>drink;buyDrink;hireSailorHaveShip;spreadRumor;close</t>
+  </si>
+  <si>
+    <t>雇佣水手-开始</t>
+  </si>
+  <si>
+    <t>hireSailorFull</t>
+  </si>
+  <si>
+    <t>雇佣水手-满了</t>
+  </si>
+  <si>
+    <t>hireSailorSetHireNumber</t>
+  </si>
+  <si>
+    <t>雇佣水手-初始化</t>
+  </si>
+  <si>
+    <t>setNumber</t>
+  </si>
+  <si>
+    <t>hireNumber=0</t>
+  </si>
+  <si>
+    <t>hireSailorSetCurrNumber</t>
+  </si>
+  <si>
+    <t>雇佣水手-初始化2</t>
+  </si>
+  <si>
+    <t>currNumber=ship.sailorNumber</t>
+  </si>
+  <si>
+    <t>hireSailorSetMaxNumber</t>
+  </si>
+  <si>
+    <t>maxNumber=ship.maxSailorNumber</t>
+  </si>
+  <si>
+    <t>hireSailorFullDialog</t>
+  </si>
+  <si>
+    <t>雇佣水手-满了对话</t>
+  </si>
+  <si>
+    <t>hireSailorFullList</t>
+  </si>
+  <si>
+    <t>hireSailorHired</t>
+  </si>
+  <si>
+    <t>雇佣水手-雇佣过了</t>
+  </si>
+  <si>
+    <t>arrangeSailorWindow</t>
+  </si>
+  <si>
+    <t>分配水手窗口</t>
+  </si>
+  <si>
+    <t>SailorNumberPanel;cache;hireNumber</t>
+  </si>
+  <si>
+    <t>arrangeSailorWindow;hireSailorAlreadyFullDialog</t>
+  </si>
+  <si>
+    <t>hireSailorAlreadyFullDialog</t>
+  </si>
+  <si>
+    <t>雇佣水手-已经满员</t>
+  </si>
+  <si>
+    <t>dialog_hire_full_already</t>
+  </si>
+  <si>
+    <t>dialog_hire_full;hireSailorHired</t>
+  </si>
+  <si>
+    <t>hireSailorFullDialog;hireSailorHired</t>
+  </si>
+  <si>
+    <t>hireSailorContune</t>
+  </si>
+  <si>
+    <t>hireSailorFullList;hireSailorContune</t>
+  </si>
+  <si>
+    <t>雇佣水手-继续雇佣</t>
+  </si>
+  <si>
+    <t>hairSailorSetWage</t>
+  </si>
+  <si>
+    <t>hairSailorSetNumber</t>
+  </si>
+  <si>
+    <t>wage=city.wage</t>
+  </si>
+  <si>
+    <t>addNumber=city.nextSailorNumber</t>
+  </si>
+  <si>
+    <t>hairSailorSetMoney</t>
+  </si>
+  <si>
+    <t>money=cache.wage*cache.addNumber</t>
+  </si>
+  <si>
+    <t>hireNumber=cache.hireNumber+cache.addNumber</t>
+  </si>
+  <si>
+    <t>hireSailorMoneyEnough</t>
+  </si>
+  <si>
+    <t>hireSailorMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>雇佣水手-钱不够了</t>
+  </si>
+  <si>
+    <t>雇佣水手-钱够吗</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>空事件</t>
+  </si>
+  <si>
+    <t>hireSailorMoneyNotEnoughDialog;hireSailorHired</t>
+  </si>
+  <si>
+    <t>hireSailorMoneyNotEnoughDialo</t>
+  </si>
+  <si>
+    <t>dialog_hire_sailor_no_money</t>
+  </si>
+  <si>
+    <t>hireSailorConfirm</t>
+  </si>
+  <si>
+    <t>dialogTemp</t>
+  </si>
+  <si>
+    <t>hireSailorSetNeedNumber</t>
+  </si>
+  <si>
+    <t>needNumber=ship.needSailorNumber</t>
+  </si>
+  <si>
+    <t>hairSailorSetWage;hairSailorSetNumber;hairSailorSetMoney;hireSailorMoneyEnough</t>
+  </si>
+  <si>
+    <t>hireSailorPassNeed</t>
+  </si>
+  <si>
+    <t>hireSailorConfirm1;hireSailorConfirm2</t>
+  </si>
+  <si>
+    <t>hireSailorConfirm1</t>
+  </si>
+  <si>
+    <t>hireSailorTempValue1</t>
+  </si>
+  <si>
+    <t>hireSailorConfirmDialog1</t>
+  </si>
+  <si>
+    <t>hireSailorTempValue;hireSailorPassNeed</t>
+  </si>
+  <si>
+    <t>showNeedNumber=cache.maxNumber-currNumber</t>
+  </si>
+  <si>
+    <t>hireSailorNeedNumber1</t>
+  </si>
+  <si>
+    <t>cache.showNeedNumber;cache.money</t>
+  </si>
+  <si>
+    <t>hireSailorNeedNumber1;hireSailorTempValue1;hireSailorConfirmDialog1</t>
+  </si>
+  <si>
+    <t>dialog_hire_continue_full</t>
+  </si>
+  <si>
+    <t>hireSailorConfirm2</t>
+  </si>
+  <si>
+    <t>hireSailorNeedNumber2</t>
+  </si>
+  <si>
+    <t>hireSailorTempValue2</t>
+  </si>
+  <si>
+    <t>hireSailorNeedNumber2;hireSailorTempValue2;hireSailorConfirmDialog2</t>
+  </si>
+  <si>
+    <t>showNeedNumber=cache.needNumber-currNumber</t>
+  </si>
+  <si>
+    <t>dialog_hire_continue_need</t>
+  </si>
+  <si>
+    <t>hireSailorConfirmSelect</t>
+  </si>
+  <si>
+    <t>dialogYesNo</t>
+  </si>
+  <si>
+    <t>hireSailorConfirmed</t>
+  </si>
+  <si>
+    <t>currNumber=ship.sailorNumber+cache.hireNumber</t>
+  </si>
+  <si>
+    <t>hireSailorCurrNumberChange</t>
+  </si>
+  <si>
+    <t>hireSailorHireNumberChange</t>
+  </si>
+  <si>
+    <t>hireSailorCostMoney</t>
+  </si>
+  <si>
+    <t>dataChange</t>
+  </si>
+  <si>
+    <t>money;-;cache.money</t>
+  </si>
+  <si>
+    <t>hireSailorHireNumberChange;hireSailorCurrNumberChange;hireSailorCostMoney;waitADay;hireSailorFull</t>
+  </si>
+  <si>
+    <t>水手快满了</t>
+  </si>
+  <si>
+    <t>水手还不够</t>
+  </si>
+  <si>
+    <t>hireSailorConfirmed;hireSailorHired</t>
+  </si>
+  <si>
+    <t>雇佣确认</t>
+  </si>
+  <si>
+    <t>hireSailorSetHireNumber;hireSailorSetCurrNumber;hireSailorSetMaxNumber;hireSailorSetNeedNumber;hireSailorFull</t>
+  </si>
+  <si>
+    <t>hireSailorConfirm;hireSailorMoneyNotEnough</t>
   </si>
 </sst>
 </file>
@@ -712,18 +982,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -756,153 +1026,153 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -910,240 +1180,714 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1340" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="2160" yWindow="1280" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="186">
   <si>
     <t>id</t>
   </si>
@@ -38,9 +38,6 @@
     <t>government</t>
   </si>
   <si>
-    <t>tarven</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
     <t>关闭窗口</t>
   </si>
   <si>
+    <t>drink;buyDrink;hireSailor;spreadRumor;close</t>
+  </si>
+  <si>
     <t>trade;commerceInvest;commerceInfo;close</t>
   </si>
   <si>
@@ -299,9 +299,6 @@
     <t>InvestPanel;1;signUpSuccess;signUpFail</t>
   </si>
   <si>
-    <t>wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
-  </si>
-  <si>
     <t>hireSailor</t>
   </si>
   <si>
@@ -320,12 +317,6 @@
     <t>hireSailorHaveShip</t>
   </si>
   <si>
-    <t>hireSailor;hireSailorNoShip</t>
-  </si>
-  <si>
-    <t>drink;buyDrink;hireSailorHaveShip;spreadRumor;close</t>
-  </si>
-  <si>
     <t>雇佣水手-开始</t>
   </si>
   <si>
@@ -371,6 +362,9 @@
     <t>hireSailorFullList</t>
   </si>
   <si>
+    <t>dialog_hire_full</t>
+  </si>
+  <si>
     <t>hireSailorHired</t>
   </si>
   <si>
@@ -383,24 +377,6 @@
     <t>分配水手窗口</t>
   </si>
   <si>
-    <t>SailorNumberPanel;cache;hireNumber</t>
-  </si>
-  <si>
-    <t>arrangeSailorWindow;hireSailorAlreadyFullDialog</t>
-  </si>
-  <si>
-    <t>hireSailorAlreadyFullDialog</t>
-  </si>
-  <si>
-    <t>雇佣水手-已经满员</t>
-  </si>
-  <si>
-    <t>dialog_hire_full_already</t>
-  </si>
-  <si>
-    <t>dialog_hire_full;hireSailorHired</t>
-  </si>
-  <si>
     <t>hireSailorFullDialog;hireSailorHired</t>
   </si>
   <si>
@@ -491,9 +467,6 @@
     <t>hireSailorConfirmDialog1</t>
   </si>
   <si>
-    <t>hireSailorTempValue;hireSailorPassNeed</t>
-  </si>
-  <si>
     <t>showNeedNumber=cache.maxNumber-currNumber</t>
   </si>
   <si>
@@ -506,9 +479,6 @@
     <t>hireSailorNeedNumber1;hireSailorTempValue1;hireSailorConfirmDialog1</t>
   </si>
   <si>
-    <t>dialog_hire_continue_full</t>
-  </si>
-  <si>
     <t>hireSailorConfirm2</t>
   </si>
   <si>
@@ -524,12 +494,6 @@
     <t>showNeedNumber=cache.needNumber-currNumber</t>
   </si>
   <si>
-    <t>dialog_hire_continue_need</t>
-  </si>
-  <si>
-    <t>hireSailorConfirmSelect</t>
-  </si>
-  <si>
     <t>dialogYesNo</t>
   </si>
   <si>
@@ -563,9 +527,6 @@
     <t>水手还不够</t>
   </si>
   <si>
-    <t>hireSailorConfirmed;hireSailorHired</t>
-  </si>
-  <si>
     <t>雇佣确认</t>
   </si>
   <si>
@@ -573,6 +534,57 @@
   </si>
   <si>
     <t>hireSailorConfirm;hireSailorMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>hireSailorPassNeed;hireSailorPassNeed</t>
+  </si>
+  <si>
+    <t>hireSailorConfirmDialog2</t>
+  </si>
+  <si>
+    <t>dialog_hire_continue_need;hireSailorConfirmed;hireSailorHired</t>
+  </si>
+  <si>
+    <t>dialog_hire_continue_full;hireSailorConfirmed;hireSailorHired</t>
+  </si>
+  <si>
+    <t>hireSailorStart</t>
+  </si>
+  <si>
+    <t>hireSailorStart;hireSailorNoShip</t>
+  </si>
+  <si>
+    <t>close;hireSailorHaveShip</t>
+  </si>
+  <si>
+    <t>close;canSignUp</t>
+  </si>
+  <si>
+    <t>signUpFailedDialog</t>
+  </si>
+  <si>
+    <t>签约失败</t>
+  </si>
+  <si>
+    <t>signUpFailedDialog;government</t>
+  </si>
+  <si>
+    <t>signUpMoneyNotEnoughDialog</t>
+  </si>
+  <si>
+    <t>signUpMoneyNotEnoughDialog;government</t>
+  </si>
+  <si>
+    <t>close;wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
+  </si>
+  <si>
+    <t>SailorNumberPanel;cache.hireNumber;tavern</t>
+  </si>
+  <si>
+    <t>tavern</t>
+  </si>
+  <si>
+    <t>arrangeSailorWindow;tavern</t>
   </si>
 </sst>
 </file>
@@ -982,9 +994,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -993,21 +1005,21 @@
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.83203125" customWidth="1"/>
+    <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1018,24 +1030,24 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,7 +1058,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -1057,52 +1069,52 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -1110,13 +1122,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1124,13 +1136,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -1138,13 +1150,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1152,13 +1164,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -1166,30 +1178,30 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1242,652 +1254,666 @@
         <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D66" t="s">
-        <v>118</v>
+      <c r="D67" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1280" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="7220" yWindow="1240" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="268">
   <si>
     <t>id</t>
   </si>
@@ -272,9 +272,6 @@
     <t>想投资军事</t>
   </si>
   <si>
-    <t>dalog_wanna_invest</t>
-  </si>
-  <si>
     <t>canMilitaryInvestMoneyEnough</t>
   </si>
   <si>
@@ -569,12 +566,6 @@
     <t>signUpFailedDialog;government</t>
   </si>
   <si>
-    <t>signUpMoneyNotEnoughDialog</t>
-  </si>
-  <si>
-    <t>signUpMoneyNotEnoughDialog;government</t>
-  </si>
-  <si>
     <t>close;wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
   </si>
   <si>
@@ -585,6 +576,261 @@
   </si>
   <si>
     <t>arrangeSailorWindow;tavern</t>
+  </si>
+  <si>
+    <t>commerceInvest</t>
+  </si>
+  <si>
+    <t>close;wannaInvestCommerce;canCommerceInvestMoneyEnough</t>
+  </si>
+  <si>
+    <t>canCommerceInvestMoneyEnough</t>
+  </si>
+  <si>
+    <t>commerceInvestStart</t>
+  </si>
+  <si>
+    <t>wannaInvestCommerce</t>
+  </si>
+  <si>
+    <t>dalog_wanna_invest_commerce</t>
+  </si>
+  <si>
+    <t>dalog_wanna_invest_military</t>
+  </si>
+  <si>
+    <t>commerceInvestStart;commerceInvestMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>commerceInvestMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>moneyNotEnoughDialog</t>
+  </si>
+  <si>
+    <t>moneyNotEnoughDialog;government</t>
+  </si>
+  <si>
+    <t>钱不够</t>
+  </si>
+  <si>
+    <t>商业投资</t>
+  </si>
+  <si>
+    <t>商业投资开始</t>
+  </si>
+  <si>
+    <t>商业投资窗口</t>
+  </si>
+  <si>
+    <t>InvestPanel;0;commerceInvestSuccess;commerceInvestFail</t>
+  </si>
+  <si>
+    <t>想投资商业</t>
+  </si>
+  <si>
+    <t>商业投资成功</t>
+  </si>
+  <si>
+    <t>商业投资成功对话</t>
+  </si>
+  <si>
+    <t>商业投资失败对话</t>
+  </si>
+  <si>
+    <t>dialog_commerce_invest_success</t>
+  </si>
+  <si>
+    <t>dialog_commerce_invest_fail</t>
+  </si>
+  <si>
+    <t>commerceInvestSuccessDialog</t>
+  </si>
+  <si>
+    <t>commerceInvestFail</t>
+  </si>
+  <si>
+    <t>commerceInvestSuccess</t>
+  </si>
+  <si>
+    <t>commerceInvestWindow;commerceInvestClose</t>
+  </si>
+  <si>
+    <t>commerceInvestWindow</t>
+  </si>
+  <si>
+    <t>moneyNotEnoughDialog;exchange</t>
+  </si>
+  <si>
+    <t>commerceInvestFailDialog</t>
+  </si>
+  <si>
+    <t>商业投资失败</t>
+  </si>
+  <si>
+    <t>commerceInvestFailDialog;exchange</t>
+  </si>
+  <si>
+    <t>signUpFailDialog</t>
+  </si>
+  <si>
+    <t>signUpFailDialog;government</t>
+  </si>
+  <si>
+    <t>commerceInvestSuccessDialog;close;waitADay;exchange</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>canUnblockTradeItem</t>
+  </si>
+  <si>
+    <t>交易-可以解锁</t>
+  </si>
+  <si>
+    <t>tradeUnblockEvent</t>
+  </si>
+  <si>
+    <t>交易-开始解锁</t>
+  </si>
+  <si>
+    <t>tradeSetUnblockItem</t>
+  </si>
+  <si>
+    <t>交易-存入解锁物品Id</t>
+  </si>
+  <si>
+    <t>setString</t>
+  </si>
+  <si>
+    <t>tradeUnblockItem=city.unblockItemId</t>
+  </si>
+  <si>
+    <t>tradeUnblockDialog</t>
+  </si>
+  <si>
+    <t>交易-开始解锁询问</t>
+  </si>
+  <si>
+    <t>close;tradeSetUnblockItem;canUnblockTradeItem</t>
+  </si>
+  <si>
+    <t>tradeUnblockComplete</t>
+  </si>
+  <si>
+    <t>交易-开始解锁-同意</t>
+  </si>
+  <si>
+    <t>tradeUnblockCompleteDialog</t>
+  </si>
+  <si>
+    <t>交易-解锁-对话</t>
+  </si>
+  <si>
+    <t>dialog_unblock_item_thank</t>
+  </si>
+  <si>
+    <t>tradeUnblockCompleteSetData</t>
+  </si>
+  <si>
+    <t>交易-解锁-数据</t>
+  </si>
+  <si>
+    <t>tradeStart</t>
+  </si>
+  <si>
+    <t>tradeUnblockCompleteDialog;tradeUnblockCompleteSetData</t>
+  </si>
+  <si>
+    <t>dialog_new_item_discover;tradeUnblockComplete;</t>
+  </si>
+  <si>
+    <t>tradeUnblockFail</t>
+  </si>
+  <si>
+    <t>交易-解锁放弃</t>
+  </si>
+  <si>
+    <t>tradeUnblockFailDialog</t>
+  </si>
+  <si>
+    <t>交易-解锁放弃对话</t>
+  </si>
+  <si>
+    <t>交易开始</t>
+  </si>
+  <si>
+    <t>dialog_unblock_item_give_up</t>
+  </si>
+  <si>
+    <t>tradeWindow</t>
+  </si>
+  <si>
+    <t>交易窗口</t>
+  </si>
+  <si>
+    <t>tradeStartDialog</t>
+  </si>
+  <si>
+    <t>tradeCondition</t>
+  </si>
+  <si>
+    <t>tradeUnblockFailDialog;tradeCondition</t>
+  </si>
+  <si>
+    <t>交易-条件-占有</t>
+  </si>
+  <si>
+    <t>tradeStartDialog;tradeWindow</t>
+  </si>
+  <si>
+    <t>tradeFailNoSign</t>
+  </si>
+  <si>
+    <t>交易失败-因为没有签约</t>
+  </si>
+  <si>
+    <t>tradeStart;tradeFailNoSign</t>
+  </si>
+  <si>
+    <t>dialog_trade_start</t>
+  </si>
+  <si>
+    <t>tradeFailNoSignDialog</t>
+  </si>
+  <si>
+    <t>tradeFailNoSignDialog;exchange</t>
+  </si>
+  <si>
+    <t>dialog_need_to_sign_before_exchange</t>
+  </si>
+  <si>
+    <t>tradePanel;tradeSuccess;tradeCanceled</t>
+  </si>
+  <si>
+    <t>tradeSuccess</t>
+  </si>
+  <si>
+    <t>交易完成</t>
+  </si>
+  <si>
+    <t>waitADay;exchange</t>
+  </si>
+  <si>
+    <t>tradeCanceled</t>
+  </si>
+  <si>
+    <t>交易取消</t>
+  </si>
+  <si>
+    <t>city;unblockItem;cache.tradeUnblockItem</t>
+  </si>
+  <si>
+    <t>tradeUnblockEvent;tradeCondition</t>
   </si>
 </sst>
 </file>
@@ -994,16 +1240,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1038,13 +1284,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1080,7 +1326,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -1220,21 +1466,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
+        <v>194</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
@@ -1243,35 +1489,35 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1321,18 +1567,18 @@
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
         <v>178</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
@@ -1355,7 +1601,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1391,106 +1637,106 @@
         <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>174</v>
@@ -1498,356 +1744,358 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
         <v>101</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,64 +2104,468 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>183</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>246</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="1240" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="26580" yWindow="4720" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="342">
   <si>
     <t>id</t>
   </si>
@@ -200,9 +200,6 @@
     <t>signUpSuccess</t>
   </si>
   <si>
-    <t>InvestPanel;2;signUpSuccess;signUpFail</t>
-  </si>
-  <si>
     <t>signUpFail</t>
   </si>
   <si>
@@ -221,18 +218,12 @@
     <t>canSignUpMoneyEnough</t>
   </si>
   <si>
-    <t>canSignUpMoneyEnough;signUpFailed</t>
-  </si>
-  <si>
     <t>signUpMoneyNotEnough</t>
   </si>
   <si>
     <t>签约钱不够</t>
   </si>
   <si>
-    <t>signUpStart;signUpMoneyNotEnough</t>
-  </si>
-  <si>
     <t>signUpSuccessDialog</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>canMilitaryInvestMoneyEnough</t>
   </si>
   <si>
-    <t>militaryInvestStart;signUpMoneyNotEnough</t>
-  </si>
-  <si>
     <t>militaryInvestStart</t>
   </si>
   <si>
@@ -293,9 +281,6 @@
     <t>军事投资窗口</t>
   </si>
   <si>
-    <t>InvestPanel;1;signUpSuccess;signUpFail</t>
-  </si>
-  <si>
     <t>hireSailor</t>
   </si>
   <si>
@@ -380,9 +365,6 @@
     <t>hireSailorContune</t>
   </si>
   <si>
-    <t>hireSailorFullList;hireSailorContune</t>
-  </si>
-  <si>
     <t>雇佣水手-继续雇佣</t>
   </si>
   <si>
@@ -452,9 +434,6 @@
     <t>hireSailorPassNeed</t>
   </si>
   <si>
-    <t>hireSailorConfirm1;hireSailorConfirm2</t>
-  </si>
-  <si>
     <t>hireSailorConfirm1</t>
   </si>
   <si>
@@ -530,9 +509,6 @@
     <t>hireSailorSetHireNumber;hireSailorSetCurrNumber;hireSailorSetMaxNumber;hireSailorSetNeedNumber;hireSailorFull</t>
   </si>
   <si>
-    <t>hireSailorConfirm;hireSailorMoneyNotEnough</t>
-  </si>
-  <si>
     <t>hireSailorPassNeed;hireSailorPassNeed</t>
   </si>
   <si>
@@ -548,9 +524,6 @@
     <t>hireSailorStart</t>
   </si>
   <si>
-    <t>hireSailorStart;hireSailorNoShip</t>
-  </si>
-  <si>
     <t>close;hireSailorHaveShip</t>
   </si>
   <si>
@@ -569,15 +542,9 @@
     <t>close;wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
   </si>
   <si>
-    <t>SailorNumberPanel;cache.hireNumber;tavern</t>
-  </si>
-  <si>
     <t>tavern</t>
   </si>
   <si>
-    <t>arrangeSailorWindow;tavern</t>
-  </si>
-  <si>
     <t>commerceInvest</t>
   </si>
   <si>
@@ -599,9 +566,6 @@
     <t>dalog_wanna_invest_military</t>
   </si>
   <si>
-    <t>commerceInvestStart;commerceInvestMoneyNotEnough</t>
-  </si>
-  <si>
     <t>commerceInvestMoneyNotEnough</t>
   </si>
   <si>
@@ -623,9 +587,6 @@
     <t>商业投资窗口</t>
   </si>
   <si>
-    <t>InvestPanel;0;commerceInvestSuccess;commerceInvestFail</t>
-  </si>
-  <si>
     <t>想投资商业</t>
   </si>
   <si>
@@ -794,9 +755,6 @@
     <t>交易失败-因为没有签约</t>
   </si>
   <si>
-    <t>tradeStart;tradeFailNoSign</t>
-  </si>
-  <si>
     <t>dialog_trade_start</t>
   </si>
   <si>
@@ -809,9 +767,6 @@
     <t>dialog_need_to_sign_before_exchange</t>
   </si>
   <si>
-    <t>tradePanel;tradeSuccess;tradeCanceled</t>
-  </si>
-  <si>
     <t>tradeSuccess</t>
   </si>
   <si>
@@ -830,7 +785,274 @@
     <t>city;unblockItem;cache.tradeUnblockItem</t>
   </si>
   <si>
-    <t>tradeUnblockEvent;tradeCondition</t>
+    <t>TradePanel;tradeSuccess;tradeCanceled</t>
+  </si>
+  <si>
+    <t>buyShip</t>
+  </si>
+  <si>
+    <t>买船</t>
+  </si>
+  <si>
+    <t>shipNumberExceed</t>
+  </si>
+  <si>
+    <t>buyShipExceedDialog</t>
+  </si>
+  <si>
+    <t>buyShipStart</t>
+  </si>
+  <si>
+    <t>buyShipExceedEvet</t>
+  </si>
+  <si>
+    <t>buyShipExceedDialog;buyShipStart</t>
+  </si>
+  <si>
+    <t>dialog_new_ship_into_dock</t>
+  </si>
+  <si>
+    <t>buyShipWindow</t>
+  </si>
+  <si>
+    <t>buyShipSuccess</t>
+  </si>
+  <si>
+    <t>buyShipCancel</t>
+  </si>
+  <si>
+    <t>sellShip</t>
+  </si>
+  <si>
+    <t>sellShipStart</t>
+  </si>
+  <si>
+    <t>sellShipWindow</t>
+  </si>
+  <si>
+    <t>sellShipSuccess</t>
+  </si>
+  <si>
+    <t>sellShipCancel</t>
+  </si>
+  <si>
+    <t>sellShipDialog</t>
+  </si>
+  <si>
+    <t>sellShipNoShipDialog</t>
+  </si>
+  <si>
+    <t>dialog_no_ship_to_sale</t>
+  </si>
+  <si>
+    <t>dialog_start_sell_ship</t>
+  </si>
+  <si>
+    <t>卖出船只</t>
+  </si>
+  <si>
+    <t>modifyShip</t>
+  </si>
+  <si>
+    <t>haveShipModify</t>
+  </si>
+  <si>
+    <t>modifyShipNoShipDialog</t>
+  </si>
+  <si>
+    <t>modifyShipDialog</t>
+  </si>
+  <si>
+    <t>modifyShipStart</t>
+  </si>
+  <si>
+    <t>dialog_no_ship_to_modify</t>
+  </si>
+  <si>
+    <t>dialog_start_modify_ship</t>
+  </si>
+  <si>
+    <t>modifyShipWindow</t>
+  </si>
+  <si>
+    <t>modifyShipSuccess</t>
+  </si>
+  <si>
+    <t>modifyShipCancel</t>
+  </si>
+  <si>
+    <t>sellShipDialog;sellShipWindow</t>
+  </si>
+  <si>
+    <t>modifyShipDialog;modifyShipWindow</t>
+  </si>
+  <si>
+    <t>改造船只</t>
+  </si>
+  <si>
+    <t>InvestPanel;signUpSuccess;signUpFail;2</t>
+  </si>
+  <si>
+    <t>InvestPanel;signUpSuccess;signUpFail;1</t>
+  </si>
+  <si>
+    <t>SailorNumberPanel;tavern;tavern;cache.hireNumber</t>
+  </si>
+  <si>
+    <t>InvestPanel;commerceInvestSuccess;commerceInvestFail;0</t>
+  </si>
+  <si>
+    <t>ShipExchangePanel;buyShipSuccess;buyShipCancel;0</t>
+  </si>
+  <si>
+    <t>ShipExchangePanel;sellShipSuccess;sellShipCancel;1</t>
+  </si>
+  <si>
+    <t>ShipExchangePanel;modifyShipSuccess;modifyShipCancel;2</t>
+  </si>
+  <si>
+    <t>dockYard</t>
+  </si>
+  <si>
+    <t>DockYardPanel;;</t>
+  </si>
+  <si>
+    <t>haveShip2Sell</t>
+  </si>
+  <si>
+    <t>canSignUp;canSignUpMoneyEnough;signUpFailed</t>
+  </si>
+  <si>
+    <t>canSignUpMoneyEnough;signUpStart;signUpMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>canMilitaryInvestMoneyEnough;militaryInvestStart;signUpMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>haveShip;hireSailorStart;hireSailorNoShip</t>
+  </si>
+  <si>
+    <t>hireSailorFull;hireSailorFullList;hireSailorContune</t>
+  </si>
+  <si>
+    <t>hireSailorHired;arrangeSailorWindow;tavern</t>
+  </si>
+  <si>
+    <t>hireSailorPassNeed;hireSailorConfirm1;hireSailorConfirm2</t>
+  </si>
+  <si>
+    <t>canCommerceInvestMoneyEnough;commerceInvestStart;commerceInvestMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>canUnblockTradeItem;tradeUnblockEvent;tradeCondition</t>
+  </si>
+  <si>
+    <t>tradeCondition;tradeStart;tradeFailNoSign</t>
+  </si>
+  <si>
+    <t>haveShip2Sell;sellShipStart;sellShipNoShipDialog</t>
+  </si>
+  <si>
+    <t>shipNumberExceed;buyShipExceedEvet;buyShipStart</t>
+  </si>
+  <si>
+    <t>haveShip;modifyShipStart;modifyShipNoShipDialog</t>
+  </si>
+  <si>
+    <t>moneyEnough;hireSailorConfirm;hireSailorMoneyNotEnough</t>
+  </si>
+  <si>
+    <t>sleep1day</t>
+  </si>
+  <si>
+    <t>sleep10day</t>
+  </si>
+  <si>
+    <t>sleep30day</t>
+  </si>
+  <si>
+    <t>sleep1dayMoney</t>
+  </si>
+  <si>
+    <t>money=1</t>
+  </si>
+  <si>
+    <t>休息一天</t>
+  </si>
+  <si>
+    <t>sleep1dayDay</t>
+  </si>
+  <si>
+    <t>day=1</t>
+  </si>
+  <si>
+    <t>sleepMoneyEnough</t>
+  </si>
+  <si>
+    <t>sleepMoneySuccess</t>
+  </si>
+  <si>
+    <t>sleepMoneyFail</t>
+  </si>
+  <si>
+    <t>sleep10dayMoney</t>
+  </si>
+  <si>
+    <t>sleep10dayDay</t>
+  </si>
+  <si>
+    <t>money=10</t>
+  </si>
+  <si>
+    <t>day=10</t>
+  </si>
+  <si>
+    <t>sleep30dayMoney</t>
+  </si>
+  <si>
+    <t>sleep30dayDay</t>
+  </si>
+  <si>
+    <t>money=30</t>
+  </si>
+  <si>
+    <t>day=30</t>
+  </si>
+  <si>
+    <t>sleep1dayMoney;sleep1dayDay;sleepMoneyEnough</t>
+  </si>
+  <si>
+    <t>sleep10dayMoney;sleep10dayDay;sleepMoneyEnough</t>
+  </si>
+  <si>
+    <t>sleep30dayMoney;sleep30dayDay;sleepMoneyEnough</t>
+  </si>
+  <si>
+    <t>moneyEnough;sleepMoneySuccess;sleepMoneyFail</t>
+  </si>
+  <si>
+    <t>sleepMoneySuccessDialog</t>
+  </si>
+  <si>
+    <t>sleepMoneySuccessCostMoney</t>
+  </si>
+  <si>
+    <t>sleepMoneySuccessCostDay</t>
+  </si>
+  <si>
+    <t>close;sleepMoneySuccessDialog;sleepMoneySuccessCostMoney;sleepMoneySuccessCostDay;inn</t>
+  </si>
+  <si>
+    <t>dialog_have_a_good_sleep</t>
+  </si>
+  <si>
+    <t>cache.day</t>
+  </si>
+  <si>
+    <t>sleepMoneyFailDialog</t>
+  </si>
+  <si>
+    <t>close;sleepMoneyFailDialog;inn</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,13 +1506,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1298,16 +1520,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1326,7 +1548,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -1452,13 +1674,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1466,16 +1688,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,12 +1711,12 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
@@ -1503,21 +1725,21 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1559,7 +1781,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,18 +1789,18 @@
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
@@ -1601,7 +1823,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,46 +1831,46 @@
         <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>48</v>
@@ -1657,40 +1879,40 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>42</v>
@@ -1699,500 +1921,500 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
         <v>155</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>42</v>
@@ -2201,371 +2423,837 @@
         <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D83" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D86" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>266</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>312</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>326</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>327</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>320</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26580" yWindow="4720" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
+    <workbookView xWindow="22740" yWindow="3740" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="363">
   <si>
     <t>id</t>
   </si>
@@ -1053,6 +1053,69 @@
   </si>
   <si>
     <t>close;sleepMoneyFailDialog;inn</t>
+  </si>
+  <si>
+    <t>buyItem</t>
+  </si>
+  <si>
+    <t>购买道具</t>
+  </si>
+  <si>
+    <t>cityHaveItem</t>
+  </si>
+  <si>
+    <t>buyItemDialog</t>
+  </si>
+  <si>
+    <t>buyItemNoItemDialog</t>
+  </si>
+  <si>
+    <t>dialog_what_do_you_wanna_buy</t>
+  </si>
+  <si>
+    <t>dialog_no_item_to_sell</t>
+  </si>
+  <si>
+    <t>buyItemWindow</t>
+  </si>
+  <si>
+    <t>buyItemSelected</t>
+  </si>
+  <si>
+    <t>buyItemCanceled</t>
+  </si>
+  <si>
+    <t>ItemBrowsePanel;buyItemSelected;buyItemCanceled;0</t>
+  </si>
+  <si>
+    <t>buyItemStart</t>
+  </si>
+  <si>
+    <t>buyItemDialog;buyItemWindow</t>
+  </si>
+  <si>
+    <t>buyItemNoItem</t>
+  </si>
+  <si>
+    <t>buyItemNoItemDialog;shop</t>
+  </si>
+  <si>
+    <t>cityHaveItem;buyItemStart;buyItemNoItem</t>
+  </si>
+  <si>
+    <t>buyItemSmallWindow</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;buyItemConfirmed;buyItemCancelSmallWindow;0;reserved.itemId</t>
+  </si>
+  <si>
+    <t>close;cityHaveItem</t>
+  </si>
+  <si>
+    <t>buyItemConfirmed</t>
+  </si>
+  <si>
+    <t>buyItemCancelSmallWindow</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3256,6 +3319,141 @@
         <v>60</v>
       </c>
     </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>342</v>
+      </c>
+      <c r="B138" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>344</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>353</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>345</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>355</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>346</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>351</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>358</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>362</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22740" yWindow="3740" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
+    <workbookView xWindow="21480" yWindow="2000" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="379">
   <si>
     <t>id</t>
   </si>
@@ -485,18 +485,12 @@
     <t>hireSailorHireNumberChange</t>
   </si>
   <si>
-    <t>hireSailorCostMoney</t>
-  </si>
-  <si>
     <t>dataChange</t>
   </si>
   <si>
     <t>money;-;cache.money</t>
   </si>
   <si>
-    <t>hireSailorHireNumberChange;hireSailorCurrNumberChange;hireSailorCostMoney;waitADay;hireSailorFull</t>
-  </si>
-  <si>
     <t>水手快满了</t>
   </si>
   <si>
@@ -1034,15 +1028,9 @@
     <t>sleepMoneySuccessDialog</t>
   </si>
   <si>
-    <t>sleepMoneySuccessCostMoney</t>
-  </si>
-  <si>
     <t>sleepMoneySuccessCostDay</t>
   </si>
   <si>
-    <t>close;sleepMoneySuccessDialog;sleepMoneySuccessCostMoney;sleepMoneySuccessCostDay;inn</t>
-  </si>
-  <si>
     <t>dialog_have_a_good_sleep</t>
   </si>
   <si>
@@ -1116,6 +1104,66 @@
   </si>
   <si>
     <t>buyItemCancelSmallWindow</t>
+  </si>
+  <si>
+    <t>buyItemConfirmedDialogData</t>
+  </si>
+  <si>
+    <t>buyItemConfirmedMoney</t>
+  </si>
+  <si>
+    <t>money=item.money</t>
+  </si>
+  <si>
+    <t>item.itemName;cache.money</t>
+  </si>
+  <si>
+    <t>buyItemConfirmedDialog</t>
+  </si>
+  <si>
+    <t>buyItemConfirmedMoney;buyItemConfirmedDialogData;buyItemConfirmedDialog</t>
+  </si>
+  <si>
+    <t>dialog_buy_item;buyItemDealStart;buyItemDealCanceled</t>
+  </si>
+  <si>
+    <t>buyItemDealStart</t>
+  </si>
+  <si>
+    <t>buyItemDealCanceled</t>
+  </si>
+  <si>
+    <t>buyItemMoneyEnough</t>
+  </si>
+  <si>
+    <t>moneyEnough;buyItemSuccess;buyItemFailed</t>
+  </si>
+  <si>
+    <t>buyItemSuccess</t>
+  </si>
+  <si>
+    <t>buyItemFailed</t>
+  </si>
+  <si>
+    <t>moneyNotEnoughDialog;buyItemDealCanceled</t>
+  </si>
+  <si>
+    <t>costMoney</t>
+  </si>
+  <si>
+    <t>hireSailorHireNumberChange;hireSailorCurrNumberChange;costMoney;waitADay;hireSailorFull</t>
+  </si>
+  <si>
+    <t>close;sleepMoneySuccessDialog;costMoney;sleepMoneySuccessCostDay;inn</t>
+  </si>
+  <si>
+    <t>buyItemGainItem</t>
+  </si>
+  <si>
+    <t>item;get;reserved.itemId</t>
+  </si>
+  <si>
+    <t>costMoney;buyItemGainItem</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1611,7 +1659,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -1751,10 +1799,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1774,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1788,7 +1836,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1802,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,7 +1892,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1852,18 +1900,18 @@
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
@@ -1886,7 +1934,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1922,18 +1970,18 @@
         <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>48</v>
@@ -1956,7 +2004,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1970,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1984,7 +2032,7 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2012,7 +2060,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,7 +2086,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,7 +2105,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>90</v>
@@ -2066,7 +2114,7 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,7 +2184,7 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,7 +2226,7 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2254,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2266,7 +2314,7 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2274,7 +2322,7 @@
         <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>40</v>
@@ -2316,7 +2364,7 @@
         <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2324,7 +2372,7 @@
         <v>142</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>40</v>
@@ -2359,14 +2407,14 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2374,13 +2422,13 @@
         <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,14 +2457,14 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>373</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
         <v>153</v>
-      </c>
-      <c r="D65" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,26 +2506,26 @@
         <v>54</v>
       </c>
       <c r="D68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>42</v>
@@ -2486,110 +2534,110 @@
         <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>64</v>
@@ -2598,253 +2646,253 @@
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" t="s">
         <v>211</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
         <v>246</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>40</v>
@@ -2855,76 +2903,76 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" t="s">
         <v>253</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>40</v>
@@ -2935,7 +2983,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>40</v>
@@ -2946,76 +2994,76 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D108" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>40</v>
@@ -3026,7 +3074,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>40</v>
@@ -3037,76 +3085,76 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D115" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D116" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D118" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>40</v>
@@ -3117,7 +3165,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>40</v>
@@ -3128,7 +3176,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B121" t="s">
         <v>18</v>
@@ -3137,252 +3185,252 @@
         <v>54</v>
       </c>
       <c r="D121" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D127" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D129" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D130" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" t="s">
         <v>335</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D134" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D135" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D136" t="s">
-        <v>341</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="B137" t="s">
+        <v>339</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>342</v>
-      </c>
-      <c r="B138" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D140" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D142" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D143" t="s">
         <v>348</v>
@@ -3390,51 +3438,51 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>358</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>40</v>
@@ -3445,13 +3493,101 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>360</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>359</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" t="s">
         <v>362</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D149" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>363</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>366</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>367</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>368</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>376</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D157" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="2000" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
+    <workbookView xWindow="13780" yWindow="3260" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="413">
   <si>
     <t>id</t>
   </si>
@@ -1109,9 +1109,6 @@
     <t>buyItemConfirmedDialogData</t>
   </si>
   <si>
-    <t>buyItemConfirmedMoney</t>
-  </si>
-  <si>
     <t>money=item.money</t>
   </si>
   <si>
@@ -1121,9 +1118,6 @@
     <t>buyItemConfirmedDialog</t>
   </si>
   <si>
-    <t>buyItemConfirmedMoney;buyItemConfirmedDialogData;buyItemConfirmedDialog</t>
-  </si>
-  <si>
     <t>dialog_buy_item;buyItemDealStart;buyItemDealCanceled</t>
   </si>
   <si>
@@ -1163,7 +1157,115 @@
     <t>item;get;reserved.itemId</t>
   </si>
   <si>
-    <t>costMoney;buyItemGainItem</t>
+    <t>costMoney;buyItemGainItem;cityHaveItem</t>
+  </si>
+  <si>
+    <t>sellItem</t>
+  </si>
+  <si>
+    <t>卖出道具</t>
+  </si>
+  <si>
+    <t>close;sellItemHaveItem</t>
+  </si>
+  <si>
+    <t>sellItemHaveItem</t>
+  </si>
+  <si>
+    <t>haveItem;sellItemStart;sellItemNoItem</t>
+  </si>
+  <si>
+    <t>sellItemStart</t>
+  </si>
+  <si>
+    <t>sellItemNoItem</t>
+  </si>
+  <si>
+    <t>sellItemNoItemDialog</t>
+  </si>
+  <si>
+    <t>sellItemNoItemDialog;shop</t>
+  </si>
+  <si>
+    <t>dialog_i_dont_have_item</t>
+  </si>
+  <si>
+    <t>sellItemWindow</t>
+  </si>
+  <si>
+    <t>sellItemSelected</t>
+  </si>
+  <si>
+    <t>ItemBrowsePanel;sellItemSelected;buyItemCanceled;1</t>
+  </si>
+  <si>
+    <t>sellItemSmallWindow</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;sellItemConfirmed;sellItemCancelSmallWindow;1;reserved.itemId</t>
+  </si>
+  <si>
+    <t>sellItemConfirmed</t>
+  </si>
+  <si>
+    <t>sellItemCancelSmallWindow</t>
+  </si>
+  <si>
+    <t>setItemMoney</t>
+  </si>
+  <si>
+    <t>setItemMoney;buyItemConfirmedDialogData;buyItemConfirmedDialog</t>
+  </si>
+  <si>
+    <t>setItemMoney;buyItemConfirmedDialogData;selltemConfirmedDialog</t>
+  </si>
+  <si>
+    <t>selltemConfirmedDialog</t>
+  </si>
+  <si>
+    <t>dialog_sell_item;selltemDealStart;sellItemDealCanceled</t>
+  </si>
+  <si>
+    <t>selltemDealStart</t>
+  </si>
+  <si>
+    <t>sellItemDealCanceled</t>
+  </si>
+  <si>
+    <t>gainMoney;sellItemLoseItem;sellItemHaveItem</t>
+  </si>
+  <si>
+    <t>gainMoney</t>
+  </si>
+  <si>
+    <t>money;+;cache.money</t>
+  </si>
+  <si>
+    <t>item;sell;reserved.itemId</t>
+  </si>
+  <si>
+    <t>sellItemLoseItem</t>
+  </si>
+  <si>
+    <t>arrangeSailor</t>
+  </si>
+  <si>
+    <t>arrangeSailorHaveShip</t>
+  </si>
+  <si>
+    <t>arrangeSailorWindow1</t>
+  </si>
+  <si>
+    <t>arrangeSailorFailedDialog</t>
+  </si>
+  <si>
+    <t>haveShip;arrangeSailorWindow1;arrangeSailorFailedDialog</t>
+  </si>
+  <si>
+    <t>SailorNumberPanel;;;0</t>
+  </si>
+  <si>
+    <t>分配水手</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2428,7 +2530,7 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2457,7 +2559,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
@@ -3309,7 +3411,7 @@
         <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3477,7 +3579,7 @@
         <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -3488,18 +3590,18 @@
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -3510,84 +3612,299 @@
         <v>130</v>
       </c>
       <c r="D150" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" t="s">
         <v>366</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D157" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>377</v>
+      </c>
+      <c r="B158" t="s">
+        <v>378</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>380</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>382</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>383</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>384</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>387</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>388</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>390</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>392</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>393</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>397</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>399</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>400</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>402</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>405</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D172" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>406</v>
+      </c>
+      <c r="B173" t="s">
+        <v>412</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>408</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D176" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="3260" windowWidth="29720" windowHeight="25120" tabRatio="500"/>
+    <workbookView xWindow="47860" yWindow="6540" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="466">
   <si>
     <t>id</t>
   </si>
@@ -1266,6 +1266,165 @@
   </si>
   <si>
     <t>分配水手</t>
+  </si>
+  <si>
+    <t>infoList</t>
+  </si>
+  <si>
+    <t>情报</t>
+  </si>
+  <si>
+    <t>shipInfo</t>
+  </si>
+  <si>
+    <t>itemInfo</t>
+  </si>
+  <si>
+    <t>taskInfo</t>
+  </si>
+  <si>
+    <t>npcInfo</t>
+  </si>
+  <si>
+    <t>diaryInfo</t>
+  </si>
+  <si>
+    <t>npcInfo;shipInfo;itemInfo;taskInfo;diaryInfo;close</t>
+  </si>
+  <si>
+    <t>船员情报</t>
+  </si>
+  <si>
+    <t>船只情报</t>
+  </si>
+  <si>
+    <t>持有道具</t>
+  </si>
+  <si>
+    <t>任务资讯</t>
+  </si>
+  <si>
+    <t>航海日志</t>
+  </si>
+  <si>
+    <t>deckArrange</t>
+  </si>
+  <si>
+    <t>甲板</t>
+  </si>
+  <si>
+    <t>systemList</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>systemSetting</t>
+  </si>
+  <si>
+    <t>save;load;systemSetting;close</t>
+  </si>
+  <si>
+    <t>sailMap</t>
+  </si>
+  <si>
+    <t>航海图</t>
+  </si>
+  <si>
+    <t>close;itemInfoWindow</t>
+  </si>
+  <si>
+    <t>itemInfoWindow</t>
+  </si>
+  <si>
+    <t>ItemBrowsePanel;browseItemSelected;infoList;2</t>
+  </si>
+  <si>
+    <t>browseItemSelected</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;itemUseSelected;itemInfoWindow;2;reserved.itemId</t>
+  </si>
+  <si>
+    <t>itemUseSelected</t>
+  </si>
+  <si>
+    <t>使用/装备道具</t>
+  </si>
+  <si>
+    <t>ProgressPanel;;;0</t>
+  </si>
+  <si>
+    <t>ProgressPanel;;;1</t>
+  </si>
+  <si>
+    <t>deckArrangeHaveShip</t>
+  </si>
+  <si>
+    <t>haveShip;deckArrangeWindow;deckArrangeFailedDialog</t>
+  </si>
+  <si>
+    <t>deckArrangeFailedDialog</t>
+  </si>
+  <si>
+    <t>deckArrangeWindow</t>
+  </si>
+  <si>
+    <t>ShipPanel;;;0</t>
+  </si>
+  <si>
+    <t>close;haveShipModify</t>
+  </si>
+  <si>
+    <t>modifyShipNoShip</t>
+  </si>
+  <si>
+    <t>modifyShipNoShipDialog;shipyard</t>
+  </si>
+  <si>
+    <t>ShipPanel;shipyard;modifyShipWindow;1</t>
+  </si>
+  <si>
+    <t>ShipInfoWindow</t>
+  </si>
+  <si>
+    <t>ShipExchangePanel;ShipInfoWindow;;3</t>
+  </si>
+  <si>
+    <t>ShipPanel;;;3</t>
+  </si>
+  <si>
+    <t>RolePanel;;;0</t>
+  </si>
+  <si>
+    <t>itemIsEquip</t>
+  </si>
+  <si>
+    <t>itemIsEquip;</t>
+  </si>
+  <si>
+    <t>itemEquipRolePanel</t>
+  </si>
+  <si>
+    <t>itemEquipSuccess</t>
+  </si>
+  <si>
+    <t>RolePanel;itemEquipSuccess;browseItemSelected;1</t>
+  </si>
+  <si>
+    <t>itemEquipSuccessDialog</t>
+  </si>
+  <si>
+    <t>itemEquipSuccessDialog;browseItemSelected</t>
+  </si>
+  <si>
+    <t>dialog_equip_an_equipment_success</t>
   </si>
 </sst>
 </file>
@@ -1675,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3196,7 +3355,7 @@
         <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>273</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3212,699 +3371,1003 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>274</v>
+        <v>451</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D119" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>292</v>
-      </c>
-      <c r="B121" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s">
-        <v>293</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>312</v>
+        <v>309</v>
+      </c>
+      <c r="B123" t="s">
+        <v>314</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D128" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D131" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D135" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D136" t="s">
-        <v>60</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>338</v>
-      </c>
-      <c r="B137" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D137" t="s">
-        <v>356</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="B138" t="s">
+        <v>339</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D138" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D140" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D143" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D144" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D147" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D150" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D151" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D155" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>377</v>
-      </c>
-      <c r="B158" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="D158" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>380</v>
+        <v>377</v>
+      </c>
+      <c r="B159" t="s">
+        <v>378</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D159" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D160" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D163" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D164" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>388</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" t="s">
         <v>390</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D165" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D166" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D169" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>406</v>
-      </c>
-      <c r="B173" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="D173" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>406</v>
+      </c>
+      <c r="B174" t="s">
+        <v>412</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" t="s">
         <v>407</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D174" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>408</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>409</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>413</v>
+      </c>
+      <c r="B178" t="s">
+        <v>414</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>418</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>415</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D180" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>454</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>416</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>437</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>439</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>441</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>458</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>460</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>461</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>463</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D189" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>417</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>419</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>426</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>445</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>448</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>447</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D195" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>428</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C196" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>430</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>431</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>432</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D199" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>434</v>
+      </c>
+      <c r="B200" t="s">
+        <v>435</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D200" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="468">
   <si>
     <t>id</t>
   </si>
@@ -1403,12 +1403,6 @@
     <t>RolePanel;;;0</t>
   </si>
   <si>
-    <t>itemIsEquip</t>
-  </si>
-  <si>
-    <t>itemIsEquip;</t>
-  </si>
-  <si>
     <t>itemEquipRolePanel</t>
   </si>
   <si>
@@ -1425,6 +1419,18 @@
   </si>
   <si>
     <t>dialog_equip_an_equipment_success</t>
+  </si>
+  <si>
+    <t>itemCanEquip</t>
+  </si>
+  <si>
+    <t>itemCanNotEquip</t>
+  </si>
+  <si>
+    <t>itemCanEquip;itemEquipRolePanel;itemCanNotEquip</t>
+  </si>
+  <si>
+    <t>不可以装备的道具，需要讨论</t>
   </si>
 </sst>
 </file>
@@ -1834,16 +1840,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4180,77 +4186,74 @@
         <v>40</v>
       </c>
       <c r="D185" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D186" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D187" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D188" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D190" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>40</v>
@@ -4261,112 +4264,126 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>445</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>426</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" t="s">
         <v>445</v>
-      </c>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D193" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D194" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D195" t="s">
-        <v>88</v>
+        <v>449</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>428</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C196" t="s">
-        <v>23</v>
+        <v>447</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D196" t="s">
-        <v>433</v>
+        <v>88</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>430</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>54</v>
+        <v>428</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C197" t="s">
+        <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>432</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D200" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>434</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>435</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="C201" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D201" t="s">
         <v>27</v>
       </c>
     </row>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="47860" yWindow="6540" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="34740" yWindow="4880" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="493">
   <si>
     <t>id</t>
   </si>
@@ -230,9 +230,6 @@
     <t>签约成功</t>
   </si>
   <si>
-    <t>signUpSuccessDialog;close;waitADay;government</t>
-  </si>
-  <si>
     <t>waitADay</t>
   </si>
   <si>
@@ -518,12 +515,6 @@
     <t>hireSailorStart</t>
   </si>
   <si>
-    <t>close;hireSailorHaveShip</t>
-  </si>
-  <si>
-    <t>close;canSignUp</t>
-  </si>
-  <si>
     <t>signUpFailedDialog</t>
   </si>
   <si>
@@ -533,18 +524,12 @@
     <t>signUpFailedDialog;government</t>
   </si>
   <si>
-    <t>close;wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
-  </si>
-  <si>
     <t>tavern</t>
   </si>
   <si>
     <t>commerceInvest</t>
   </si>
   <si>
-    <t>close;wannaInvestCommerce;canCommerceInvestMoneyEnough</t>
-  </si>
-  <si>
     <t>canCommerceInvestMoneyEnough</t>
   </si>
   <si>
@@ -632,9 +617,6 @@
     <t>signUpFailDialog;government</t>
   </si>
   <si>
-    <t>commerceInvestSuccessDialog;close;waitADay;exchange</t>
-  </si>
-  <si>
     <t>trade</t>
   </si>
   <si>
@@ -671,9 +653,6 @@
     <t>交易-开始解锁询问</t>
   </si>
   <si>
-    <t>close;tradeSetUnblockItem;canUnblockTradeItem</t>
-  </si>
-  <si>
     <t>tradeUnblockComplete</t>
   </si>
   <si>
@@ -1040,9 +1019,6 @@
     <t>sleepMoneyFailDialog</t>
   </si>
   <si>
-    <t>close;sleepMoneyFailDialog;inn</t>
-  </si>
-  <si>
     <t>buyItem</t>
   </si>
   <si>
@@ -1094,12 +1070,6 @@
     <t>buyItemSmallWindow</t>
   </si>
   <si>
-    <t>ItemInfoPanel;buyItemConfirmed;buyItemCancelSmallWindow;0;reserved.itemId</t>
-  </si>
-  <si>
-    <t>close;cityHaveItem</t>
-  </si>
-  <si>
     <t>buyItemConfirmed</t>
   </si>
   <si>
@@ -1148,15 +1118,9 @@
     <t>hireSailorHireNumberChange;hireSailorCurrNumberChange;costMoney;waitADay;hireSailorFull</t>
   </si>
   <si>
-    <t>close;sleepMoneySuccessDialog;costMoney;sleepMoneySuccessCostDay;inn</t>
-  </si>
-  <si>
     <t>buyItemGainItem</t>
   </si>
   <si>
-    <t>item;get;reserved.itemId</t>
-  </si>
-  <si>
     <t>costMoney;buyItemGainItem;cityHaveItem</t>
   </si>
   <si>
@@ -1166,9 +1130,6 @@
     <t>卖出道具</t>
   </si>
   <si>
-    <t>close;sellItemHaveItem</t>
-  </si>
-  <si>
     <t>sellItemHaveItem</t>
   </si>
   <si>
@@ -1202,9 +1163,6 @@
     <t>sellItemSmallWindow</t>
   </si>
   <si>
-    <t>ItemInfoPanel;sellItemConfirmed;sellItemCancelSmallWindow;1;reserved.itemId</t>
-  </si>
-  <si>
     <t>sellItemConfirmed</t>
   </si>
   <si>
@@ -1241,9 +1199,6 @@
     <t>money;+;cache.money</t>
   </si>
   <si>
-    <t>item;sell;reserved.itemId</t>
-  </si>
-  <si>
     <t>sellItemLoseItem</t>
   </si>
   <si>
@@ -1337,9 +1292,6 @@
     <t>航海图</t>
   </si>
   <si>
-    <t>close;itemInfoWindow</t>
-  </si>
-  <si>
     <t>itemInfoWindow</t>
   </si>
   <si>
@@ -1349,9 +1301,6 @@
     <t>browseItemSelected</t>
   </si>
   <si>
-    <t>ItemInfoPanel;itemUseSelected;itemInfoWindow;2;reserved.itemId</t>
-  </si>
-  <si>
     <t>itemUseSelected</t>
   </si>
   <si>
@@ -1379,9 +1328,6 @@
     <t>ShipPanel;;;0</t>
   </si>
   <si>
-    <t>close;haveShipModify</t>
-  </si>
-  <si>
     <t>modifyShipNoShip</t>
   </si>
   <si>
@@ -1400,9 +1346,6 @@
     <t>ShipPanel;;;3</t>
   </si>
   <si>
-    <t>RolePanel;;;0</t>
-  </si>
-  <si>
     <t>itemEquipRolePanel</t>
   </si>
   <si>
@@ -1415,9 +1358,6 @@
     <t>itemEquipSuccessDialog</t>
   </si>
   <si>
-    <t>itemEquipSuccessDialog;browseItemSelected</t>
-  </si>
-  <si>
     <t>dialog_equip_an_equipment_success</t>
   </si>
   <si>
@@ -1427,10 +1367,145 @@
     <t>itemCanNotEquip</t>
   </si>
   <si>
-    <t>itemCanEquip;itemEquipRolePanel;itemCanNotEquip</t>
-  </si>
-  <si>
     <t>不可以装备的道具，需要讨论</t>
+  </si>
+  <si>
+    <t>closeWindow</t>
+  </si>
+  <si>
+    <t>checkStory</t>
+  </si>
+  <si>
+    <t>检查剧情</t>
+  </si>
+  <si>
+    <t>closeWindow;checkStory</t>
+  </si>
+  <si>
+    <t>closeWindow;canSignUp</t>
+  </si>
+  <si>
+    <t>signUpSuccessDialog;closeWindow;waitADay;government</t>
+  </si>
+  <si>
+    <t>closeWindow;wannaInvestMilitary;canMilitaryInvestMoneyEnough</t>
+  </si>
+  <si>
+    <t>closeWindow;hireSailorHaveShip</t>
+  </si>
+  <si>
+    <t>closeWindow;wannaInvestCommerce;canCommerceInvestMoneyEnough</t>
+  </si>
+  <si>
+    <t>commerceInvestSuccessDialog;closeWindow;waitADay;exchange</t>
+  </si>
+  <si>
+    <t>closeWindow;tradeSetUnblockItem;canUnblockTradeItem</t>
+  </si>
+  <si>
+    <t>closeWindow;haveShipModify</t>
+  </si>
+  <si>
+    <t>closeWindow;sleepMoneySuccessDialog;costMoney;sleepMoneySuccessCostDay;inn</t>
+  </si>
+  <si>
+    <t>closeWindow;sleepMoneyFailDialog;inn</t>
+  </si>
+  <si>
+    <t>closeWindow;cityHaveItem</t>
+  </si>
+  <si>
+    <t>closeWindow;sellItemHaveItem</t>
+  </si>
+  <si>
+    <t>closeWindow;itemInfoWindow</t>
+  </si>
+  <si>
+    <t>itemEquipData</t>
+  </si>
+  <si>
+    <t>itemEquipData;itemEquipSuccessDialog;closeWindow;itemInfoWindow</t>
+  </si>
+  <si>
+    <t>npcInfoItemPanel</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;itemUseSelected;itemInfoWindow;2;item.itemId</t>
+  </si>
+  <si>
+    <t>role;equip;item.itemId</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;buyItemConfirmed;buyItemCancelSmallWindow;0;item.itemId</t>
+  </si>
+  <si>
+    <t>item;get;item.itemId</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;sellItemConfirmed;sellItemCancelSmallWindow;1;item.itemId</t>
+  </si>
+  <si>
+    <t>item;sell;item.itemId</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;npcUnEquip;;4</t>
+  </si>
+  <si>
+    <t>npcInfoItemEquipBrowse</t>
+  </si>
+  <si>
+    <t>npcInfoItemEquipPanel</t>
+  </si>
+  <si>
+    <t>npcInfoEquipSuccess</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;npcInfoEquipSuccess;npcInfoItemEquipBrowse;3</t>
+  </si>
+  <si>
+    <t>ItemBrowsePanel;npcInfoItemEquipPanel;;3</t>
+  </si>
+  <si>
+    <t>itemEquipData;itemEquipSuccessDialog</t>
+  </si>
+  <si>
+    <t>npcUnEquip</t>
+  </si>
+  <si>
+    <t>roleUnEquipEvent</t>
+  </si>
+  <si>
+    <t>role;unequip;item.itemId</t>
+  </si>
+  <si>
+    <t>itemAlreadyEquipped</t>
+  </si>
+  <si>
+    <t>itemAlreadyEquiped;itemUnequip;itemEquipRolePanel</t>
+  </si>
+  <si>
+    <t>itemCanEquip;itemAlreadyEquipped;itemCanNotEquip</t>
+  </si>
+  <si>
+    <t>itemUnequip</t>
+  </si>
+  <si>
+    <t>itemUnequipDialog</t>
+  </si>
+  <si>
+    <t>dialog_unequip_an_equipment</t>
+  </si>
+  <si>
+    <t>roleUnEquipEvent;itemUnequipDialog;browseItemSelected</t>
+  </si>
+  <si>
+    <t>RolePanel;;;0;npcInfoItemPanel;npcInfoItemEquipBrowse</t>
+  </si>
+  <si>
+    <t>船员情报装备</t>
+  </si>
+  <si>
+    <t>船员情报卸载</t>
   </si>
 </sst>
 </file>
@@ -1840,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1884,13 +1959,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
         <v>124</v>
       </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1898,16 +1973,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1926,7 +2001,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -2038,13 +2113,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>448</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>448</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -2052,150 +2127,150 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>447</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>295</v>
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
+        <v>175</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>40</v>
@@ -2206,377 +2281,381 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
         <v>95</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>41</v>
       </c>
@@ -2586,37 +2665,37 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>140</v>
@@ -2624,517 +2703,513 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
         <v>144</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>372</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>287</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" t="s">
-        <v>41</v>
+        <v>108</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>198</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>303</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" t="s">
         <v>217</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
         <v>243</v>
@@ -3142,430 +3217,436 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>253</v>
+        <v>240</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>256</v>
+        <v>244</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>262</v>
-      </c>
-      <c r="B105" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>255</v>
+      </c>
+      <c r="B107" t="s">
+        <v>264</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D112" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>272</v>
-      </c>
-      <c r="B113" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>451</v>
+        <v>265</v>
+      </c>
+      <c r="B115" t="s">
+        <v>277</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>433</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>278</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>453</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>292</v>
-      </c>
-      <c r="B122" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>293</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>309</v>
-      </c>
-      <c r="B123" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>328</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>312</v>
+        <v>285</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>315</v>
+        <v>302</v>
+      </c>
+      <c r="B125" t="s">
+        <v>307</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D126" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D127" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D129" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D130" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3573,10 +3654,10 @@
         <v>317</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D132" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3584,806 +3665,957 @@
         <v>318</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D133" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D135" t="s">
-        <v>335</v>
+        <v>459</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D136" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D137" t="s">
-        <v>60</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>338</v>
-      </c>
-      <c r="B138" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D138" t="s">
-        <v>356</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D139" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>349</v>
+        <v>330</v>
+      </c>
+      <c r="B140" t="s">
+        <v>331</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D140" t="s">
-        <v>350</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D143" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>395</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D149" t="s">
-        <v>345</v>
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D152" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D153" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D154" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>377</v>
-      </c>
-      <c r="B159" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D159" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="D160" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>365</v>
+      </c>
+      <c r="B161" t="s">
+        <v>366</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D162" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D163" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D165" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D166" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D168" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D171" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>406</v>
-      </c>
-      <c r="B174" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D174" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="D175" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>408</v>
+        <v>391</v>
+      </c>
+      <c r="B176" t="s">
+        <v>397</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>413</v>
-      </c>
-      <c r="B178" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D178" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>418</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D179" t="s">
-        <v>457</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>415</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>422</v>
+        <v>398</v>
+      </c>
+      <c r="B180" t="s">
+        <v>399</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>454</v>
-      </c>
-      <c r="B181" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="C181" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D181" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D182" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>437</v>
-      </c>
-      <c r="B183" s="1"/>
+        <v>474</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D183" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>439</v>
-      </c>
-      <c r="B184" s="1"/>
+        <v>475</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="C184" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D184" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>441</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>442</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B185" s="1"/>
       <c r="C185" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D185" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D187" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>459</v>
-      </c>
-      <c r="B188" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="C188" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D188" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D189" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="D190" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>417</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>419</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D193" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D194" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D195" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>88</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>428</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C197" t="s">
-        <v>23</v>
+        <v>487</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>430</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>431</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B199" s="1"/>
       <c r="C199" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>432</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>468</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>434</v>
-      </c>
-      <c r="B201" t="s">
-        <v>435</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D201" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>445</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D202" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D203" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>428</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>431</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>430</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D208" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C209" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>415</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>416</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>417</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" t="s">
+        <v>420</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D213" t="s">
         <v>27</v>
       </c>
     </row>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="505">
   <si>
     <t>id</t>
   </si>
@@ -1334,9 +1334,6 @@
     <t>modifyShipNoShipDialog;shipyard</t>
   </si>
   <si>
-    <t>ShipPanel;shipyard;modifyShipWindow;1</t>
-  </si>
-  <si>
     <t>ShipInfoWindow</t>
   </si>
   <si>
@@ -1430,21 +1427,12 @@
     <t>npcInfoItemPanel</t>
   </si>
   <si>
-    <t>ItemInfoPanel;itemUseSelected;itemInfoWindow;2;item.itemId</t>
-  </si>
-  <si>
     <t>role;equip;item.itemId</t>
   </si>
   <si>
-    <t>ItemInfoPanel;buyItemConfirmed;buyItemCancelSmallWindow;0;item.itemId</t>
-  </si>
-  <si>
     <t>item;get;item.itemId</t>
   </si>
   <si>
-    <t>ItemInfoPanel;sellItemConfirmed;sellItemCancelSmallWindow;1;item.itemId</t>
-  </si>
-  <si>
     <t>item;sell;item.itemId</t>
   </si>
   <si>
@@ -1506,6 +1494,54 @@
   </si>
   <si>
     <t>船员情报卸载</t>
+  </si>
+  <si>
+    <t>ShipPanel;shipyard;modifyShipWindow;1;modifyShipHeader</t>
+  </si>
+  <si>
+    <t>modifyShipHeader</t>
+  </si>
+  <si>
+    <t>modifyShipHeaderWindow</t>
+  </si>
+  <si>
+    <t>modifyShipHeaderSuccess</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;modifyShipHeaderSuccess;;5</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;buyItemConfirmed;buyItemCancelSmallWindow;0</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;sellItemConfirmed;sellItemCancelSmallWindow;1</t>
+  </si>
+  <si>
+    <t>ItemInfoPanel;itemUseSelected;itemInfoWindow;2</t>
+  </si>
+  <si>
+    <t>modifyShipHeaderBrowseWindow</t>
+  </si>
+  <si>
+    <t>ItemBrowsePanel;modifyShipHeaderWindow;;5</t>
+  </si>
+  <si>
+    <t>modifyShipHeaderUnequip</t>
+  </si>
+  <si>
+    <t>modifyShipHeaderEquip</t>
+  </si>
+  <si>
+    <t>ship;unequip;item.itemId</t>
+  </si>
+  <si>
+    <t>shipEquip;item.itemId</t>
+  </si>
+  <si>
+    <t>shipHasHeader;modifyShipHeaderWindow;modifyShipHeaderBrowseWindow</t>
+  </si>
+  <si>
+    <t>shipHasHeader;modifyShipHeaderUnequip;modifyShipHeaderEquip</t>
   </si>
 </sst>
 </file>
@@ -1915,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2113,13 +2149,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -2127,7 +2163,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -2150,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,7 +2354,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,7 +2424,7 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2442,7 +2478,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2890,7 +2926,7 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2960,7 +2996,7 @@
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3030,7 +3066,7 @@
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3464,7 +3500,7 @@
         <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,1081 +3577,1147 @@
         <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>274</v>
+        <v>490</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>123</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>285</v>
-      </c>
-      <c r="B124" t="s">
-        <v>18</v>
+        <v>497</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>286</v>
+        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>302</v>
-      </c>
-      <c r="B125" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D125" t="s">
-        <v>321</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>305</v>
+        <v>492</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>306</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>308</v>
+        <v>499</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="D127" t="s">
-        <v>309</v>
+        <v>501</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>500</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
-        <v>322</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>315</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>285</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="B131" t="s">
+        <v>307</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D132" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D133" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D135" t="s">
-        <v>459</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D136" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D138" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D139" t="s">
-        <v>60</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>330</v>
-      </c>
-      <c r="B140" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>461</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>345</v>
+        <v>458</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D142" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D143" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>344</v>
+        <v>459</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>336</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>337</v>
+        <v>330</v>
+      </c>
+      <c r="B146" t="s">
+        <v>331</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>469</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>353</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>356</v>
+        <v>494</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D158" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D159" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D160" t="s">
-        <v>470</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>365</v>
-      </c>
-      <c r="B161" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>462</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D166" t="s">
-        <v>376</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>375</v>
+        <v>365</v>
+      </c>
+      <c r="B167" t="s">
+        <v>366</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>377</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D168" t="s">
-        <v>471</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D171" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D172" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="D174" t="s">
-        <v>389</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="D175" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>391</v>
-      </c>
-      <c r="B176" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D177" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D179" t="s">
-        <v>87</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>398</v>
-      </c>
-      <c r="B180" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="D180" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>403</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D181" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>466</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>492</v>
+        <v>391</v>
+      </c>
+      <c r="B182" t="s">
+        <v>397</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D182" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>474</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>491</v>
+        <v>392</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D183" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>475</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>491</v>
+        <v>393</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D184" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>476</v>
-      </c>
-      <c r="B185" s="1"/>
+        <v>394</v>
+      </c>
       <c r="C185" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>479</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>480</v>
-      </c>
-      <c r="B186" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="B186" t="s">
+        <v>399</v>
+      </c>
       <c r="C186" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>481</v>
-      </c>
-      <c r="B187" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="C187" s="1" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="D187" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D188" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>436</v>
-      </c>
-      <c r="B189" s="1"/>
+        <v>470</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="C189" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D189" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D190" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D191" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>424</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D193" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>444</v>
-      </c>
-      <c r="B194" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="C194" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D194" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D195" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>486</v>
-      </c>
-      <c r="B196" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="C196" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D197" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>440</v>
-      </c>
-      <c r="B199" s="1"/>
+        <v>424</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="C199" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D201" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>445</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>446</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>402</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>409</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>27</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>404</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>410</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>440</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>411</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>412</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="D206" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>430</v>
-      </c>
-      <c r="B208" s="1"/>
+        <v>444</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="C208" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D208" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C209" t="s">
-        <v>23</v>
+        <v>409</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D209" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>404</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D210" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>417</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>431</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>430</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D214" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>415</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>417</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D218" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>419</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B219" t="s">
         <v>420</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="C219" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D219" t="s">
         <v>27</v>
       </c>
     </row>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="4880" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="37040" yWindow="4060" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="518">
   <si>
     <t>id</t>
   </si>
@@ -1364,9 +1364,6 @@
     <t>itemCanNotEquip</t>
   </si>
   <si>
-    <t>不可以装备的道具，需要讨论</t>
-  </si>
-  <si>
     <t>closeWindow</t>
   </si>
   <si>
@@ -1520,6 +1517,9 @@
     <t>ItemInfoPanel;itemUseSelected;itemInfoWindow;2</t>
   </si>
   <si>
+    <t>ship;equip;item.itemId</t>
+  </si>
+  <si>
     <t>modifyShipHeaderBrowseWindow</t>
   </si>
   <si>
@@ -1535,13 +1535,52 @@
     <t>ship;unequip;item.itemId</t>
   </si>
   <si>
-    <t>shipEquip;item.itemId</t>
-  </si>
-  <si>
     <t>shipHasHeader;modifyShipHeaderWindow;modifyShipHeaderBrowseWindow</t>
   </si>
   <si>
     <t>shipHasHeader;modifyShipHeaderUnequip;modifyShipHeaderEquip</t>
+  </si>
+  <si>
+    <t>不可以装备的道具，会不会是船首像</t>
+  </si>
+  <si>
+    <t>itemIsShipHeader;itemIsShipHeader;itemIsNotShipHeader</t>
+  </si>
+  <si>
+    <t>itemIsShipHeader</t>
+  </si>
+  <si>
+    <t>itemIsNotShipHeader</t>
+  </si>
+  <si>
+    <t>是否已经装备了船首像</t>
+  </si>
+  <si>
+    <t>itemAlreadyEquiped;itemUnequipShipHeader;itemPanelSelectShip</t>
+  </si>
+  <si>
+    <t>itemUnequipShipHeader</t>
+  </si>
+  <si>
+    <t>shipUnequipShipHeader</t>
+  </si>
+  <si>
+    <t>不是</t>
+  </si>
+  <si>
+    <t>itemPanelSelectShip</t>
+  </si>
+  <si>
+    <t>ShipExchangePanel;shipEquipItem;;4</t>
+  </si>
+  <si>
+    <t>shipEquipItem</t>
+  </si>
+  <si>
+    <t>itemEquipSuccessDialog;modifyShipHeaderEquip;itemInfoWindow</t>
+  </si>
+  <si>
+    <t>shipUnequipShipHeader;itemUnequipDialog;itemInfoWindow</t>
   </si>
 </sst>
 </file>
@@ -1951,16 +1990,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2149,13 +2188,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -2163,7 +2202,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -2186,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,7 +2379,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,7 +2393,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,7 +2463,7 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2478,7 +2517,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2926,7 +2965,7 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2996,7 +3035,7 @@
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3066,7 +3105,7 @@
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3500,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,18 +3616,18 @@
         <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3604,24 +3643,24 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3643,7 +3682,7 @@
         <v>151</v>
       </c>
       <c r="D128" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,7 +3831,7 @@
         <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3825,7 +3864,7 @@
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -3850,7 +3889,7 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -3949,7 +3988,7 @@
         <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4070,7 +4109,7 @@
         <v>151</v>
       </c>
       <c r="D166" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,7 +4123,7 @@
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4161,7 +4200,7 @@
         <v>54</v>
       </c>
       <c r="D174" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,7 +4277,7 @@
         <v>151</v>
       </c>
       <c r="D181" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -4313,85 +4352,85 @@
         <v>54</v>
       </c>
       <c r="D187" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D188" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D189" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D190" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D191" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D193" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -4431,7 +4470,7 @@
         <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -4455,7 +4494,7 @@
         <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -4481,43 +4520,43 @@
         <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D201" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -4541,19 +4580,19 @@
         <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D206" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,151 +4612,227 @@
         <v>444</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>402</v>
+        <v>506</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>409</v>
+        <v>508</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>404</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>410</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>514</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>411</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>412</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>428</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D212" t="s">
-        <v>429</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D213" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>430</v>
-      </c>
-      <c r="B214" s="1"/>
+        <v>507</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="C214" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D214" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C215" t="s">
-        <v>23</v>
+        <v>409</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D215" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>415</v>
+        <v>404</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D216" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D217" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>417</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>27</v>
+        <v>429</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>431</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D219" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>430</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>413</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>415</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D222" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>416</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>417</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>419</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B225" t="s">
         <v>420</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="C225" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D225" t="s">
         <v>27</v>
       </c>
     </row>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -1581,6 +1581,144 @@
   </si>
   <si>
     <t>shipUnequipShipHeader;itemUnequipDialog;itemInfoWindow</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>SailScene;0</t>
+  </si>
+  <si>
+    <t>commerceInfo</t>
+  </si>
+  <si>
+    <t>商业情报</t>
+  </si>
+  <si>
+    <t>sail</t>
+  </si>
+  <si>
+    <t>SailScene;1</t>
+  </si>
+  <si>
+    <t>SailScene;2</t>
+  </si>
+  <si>
+    <t>sailScene</t>
+  </si>
+  <si>
+    <t>closeWindow;sailScene</t>
+  </si>
+  <si>
+    <t>航行 todo:添加船只判断，船员判断等</t>
+  </si>
+  <si>
+    <t>haveShip</t>
+  </si>
+  <si>
+    <t>haveSailors</t>
+  </si>
+  <si>
+    <t>有船</t>
+  </si>
+  <si>
+    <t>有船员</t>
+  </si>
+  <si>
+    <t>dialogNoShip2Sail</t>
+  </si>
+  <si>
+    <t>haveShip;haveSailors;dialogNoShip2Sail</t>
+  </si>
+  <si>
+    <t>dialogNoSailor2Sail</t>
+  </si>
+  <si>
+    <t>dialog_no_sailors</t>
+  </si>
+  <si>
+    <t>haveEnoughSailors</t>
+  </si>
+  <si>
+    <t>达到必要水手数</t>
+  </si>
+  <si>
+    <t>haveSailors;haveEnoughSailors;dialogNoSailor2Sail</t>
+  </si>
+  <si>
+    <t>needFillFood</t>
+  </si>
+  <si>
+    <t>是否需要补给</t>
+  </si>
+  <si>
+    <t>needFillUp;</t>
+  </si>
+  <si>
+    <t>haveEnoughSailors;needFillFood;</t>
+  </si>
+  <si>
+    <t>haveEnoughSailorsFail</t>
+  </si>
+  <si>
+    <t>dialogNoEnoughSailor2Sail</t>
+  </si>
+  <si>
+    <t>dialogNoEnoughSailor2Sail;needFillFood</t>
+  </si>
+  <si>
+    <t>dialog_no_enough_sailors</t>
+  </si>
+  <si>
+    <t>shipFillFood</t>
+  </si>
+  <si>
+    <t>cache.money</t>
+  </si>
+  <si>
+    <t>setFillUpMoney</t>
+  </si>
+  <si>
+    <t>setFillUpTemp</t>
+  </si>
+  <si>
+    <t>setFillUpDilog</t>
+  </si>
+  <si>
+    <t>money=team.needsFoodCapacity*100</t>
+  </si>
+  <si>
+    <t>dialogyesNo</t>
+  </si>
+  <si>
+    <t>fillUpStart</t>
+  </si>
+  <si>
+    <t>fillUpNo</t>
+  </si>
+  <si>
+    <t>haveEnoughMoney2Fill</t>
+  </si>
+  <si>
+    <t>setFillUpMoney;setFillUpTemp;setFillUpDilog</t>
+  </si>
+  <si>
+    <t>dialog_fill_food;haveEnoughMoney2Fill;fillUpNo</t>
+  </si>
+  <si>
+    <t>fillUpPartial</t>
+  </si>
+  <si>
+    <t>moneyEnough;FillUpStart;fillUpPartial</t>
+  </si>
+  <si>
+    <t>fillUpPartialDialog</t>
+  </si>
+  <si>
+    <t>fillUpPartialDialog;fillUpStart</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
 </sst>
 </file>
@@ -1990,16 +2128,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4830,10 +4968,243 @@
         <v>420</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>520</v>
+      </c>
+      <c r="B226" t="s">
+        <v>521</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D226" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>522</v>
+      </c>
+      <c r="B227" t="s">
+        <v>527</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>528</v>
+      </c>
+      <c r="B228" t="s">
+        <v>530</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>529</v>
+      </c>
+      <c r="B229" t="s">
+        <v>531</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>536</v>
+      </c>
+      <c r="B230" t="s">
+        <v>537</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D230" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>539</v>
+      </c>
+      <c r="B231" t="s">
+        <v>540</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D231" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>543</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D232" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>544</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>534</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D234" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>532</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D235" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>547</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D236" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>549</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D237" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>550</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D238" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>551</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D239" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>556</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D240" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>554</v>
+      </c>
+      <c r="B241" t="s">
+        <v>563</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>559</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D242" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>561</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D243" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>555</v>
+      </c>
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>525</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D245" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37040" yWindow="4060" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="35000" yWindow="6540" windowWidth="32900" windowHeight="20820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="591">
   <si>
     <t>id</t>
   </si>
@@ -323,15 +323,9 @@
     <t>雇佣水手-初始化2</t>
   </si>
   <si>
-    <t>currNumber=ship.sailorNumber</t>
-  </si>
-  <si>
     <t>hireSailorSetMaxNumber</t>
   </si>
   <si>
-    <t>maxNumber=ship.maxSailorNumber</t>
-  </si>
-  <si>
     <t>hireSailorFullDialog</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
     <t>hireSailorSetNeedNumber</t>
   </si>
   <si>
-    <t>needNumber=ship.needSailorNumber</t>
-  </si>
-  <si>
     <t>hairSailorSetWage;hairSailorSetNumber;hairSailorSetMoney;hireSailorMoneyEnough</t>
   </si>
   <si>
@@ -440,9 +431,6 @@
     <t>hireSailorConfirmDialog1</t>
   </si>
   <si>
-    <t>showNeedNumber=cache.maxNumber-currNumber</t>
-  </si>
-  <si>
     <t>hireSailorNeedNumber1</t>
   </si>
   <si>
@@ -1607,9 +1595,6 @@
     <t>sailScene</t>
   </si>
   <si>
-    <t>closeWindow;sailScene</t>
-  </si>
-  <si>
     <t>航行 todo:添加船只判断，船员判断等</t>
   </si>
   <si>
@@ -1628,9 +1613,6 @@
     <t>dialogNoShip2Sail</t>
   </si>
   <si>
-    <t>haveShip;haveSailors;dialogNoShip2Sail</t>
-  </si>
-  <si>
     <t>dialogNoSailor2Sail</t>
   </si>
   <si>
@@ -1643,21 +1625,12 @@
     <t>达到必要水手数</t>
   </si>
   <si>
-    <t>haveSailors;haveEnoughSailors;dialogNoSailor2Sail</t>
-  </si>
-  <si>
     <t>needFillFood</t>
   </si>
   <si>
     <t>是否需要补给</t>
   </si>
   <si>
-    <t>needFillUp;</t>
-  </si>
-  <si>
-    <t>haveEnoughSailors;needFillFood;</t>
-  </si>
-  <si>
     <t>haveEnoughSailorsFail</t>
   </si>
   <si>
@@ -1682,36 +1655,15 @@
     <t>setFillUpTemp</t>
   </si>
   <si>
-    <t>setFillUpDilog</t>
-  </si>
-  <si>
-    <t>money=team.needsFoodCapacity*100</t>
-  </si>
-  <si>
-    <t>dialogyesNo</t>
-  </si>
-  <si>
     <t>fillUpStart</t>
   </si>
   <si>
-    <t>fillUpNo</t>
-  </si>
-  <si>
     <t>haveEnoughMoney2Fill</t>
   </si>
   <si>
-    <t>setFillUpMoney;setFillUpTemp;setFillUpDilog</t>
-  </si>
-  <si>
-    <t>dialog_fill_food;haveEnoughMoney2Fill;fillUpNo</t>
-  </si>
-  <si>
     <t>fillUpPartial</t>
   </si>
   <si>
-    <t>moneyEnough;FillUpStart;fillUpPartial</t>
-  </si>
-  <si>
     <t>fillUpPartialDialog</t>
   </si>
   <si>
@@ -1719,6 +1671,135 @@
   </si>
   <si>
     <t>todo</t>
+  </si>
+  <si>
+    <t>forceSailWithoutEnoughSailors</t>
+  </si>
+  <si>
+    <t>haveEnoughSailors;needFillFood;forceSailWithoutEnoughSailors</t>
+  </si>
+  <si>
+    <t>是否水手不足也强行出港</t>
+  </si>
+  <si>
+    <t>forceSailWithoutFillUp</t>
+  </si>
+  <si>
+    <t>是否不补充强行出港</t>
+  </si>
+  <si>
+    <t>beforeSailPreparation</t>
+  </si>
+  <si>
+    <t>出港前，计算出本次出港可以航行的时间</t>
+  </si>
+  <si>
+    <t>dialog_fill_food;haveEnoughMoney2Fill;forceSailWithoutFillUp</t>
+  </si>
+  <si>
+    <t>setSailDays</t>
+  </si>
+  <si>
+    <t>计算可以航行的天数</t>
+  </si>
+  <si>
+    <t>days=team.canSailDays</t>
+  </si>
+  <si>
+    <t>航行天数过少，取消航行计划</t>
+  </si>
+  <si>
+    <t>sailDaysEnough</t>
+  </si>
+  <si>
+    <t>dialogDaysEnoughToSail</t>
+  </si>
+  <si>
+    <t>dialogDaysNotEnough</t>
+  </si>
+  <si>
+    <t>sailStart</t>
+  </si>
+  <si>
+    <t>查看可以航行的天数，看看够不够</t>
+  </si>
+  <si>
+    <t>cache.days</t>
+  </si>
+  <si>
+    <t>setDialogTempDays</t>
+  </si>
+  <si>
+    <t>setSailDays;setDialogTempDays;sailDaysEnough</t>
+  </si>
+  <si>
+    <t>dialog_days_enough_to_sail</t>
+  </si>
+  <si>
+    <t>dialog_days_not_enough_to_sail</t>
+  </si>
+  <si>
+    <t>dialogDaysEnoughToSail;sailScene</t>
+  </si>
+  <si>
+    <t>currNumber=team.sailorNumber</t>
+  </si>
+  <si>
+    <t>maxNumber=team.maxSailorNumber</t>
+  </si>
+  <si>
+    <t>needNumber=team.needSailorNumber</t>
+  </si>
+  <si>
+    <t>money=team.needsFoodCapacity</t>
+  </si>
+  <si>
+    <t>team;fillUp;cache.money</t>
+  </si>
+  <si>
+    <t>money=team.money</t>
+  </si>
+  <si>
+    <t>fillUpPartialSetMoney</t>
+  </si>
+  <si>
+    <t>fillUpStartDataChange</t>
+  </si>
+  <si>
+    <t>fillUpStartDataChange;beforeSailPreparation</t>
+  </si>
+  <si>
+    <t>closeWindow;haveShip</t>
+  </si>
+  <si>
+    <t>haveShip;haveSailors;dialogNoShip2Sail_dock</t>
+  </si>
+  <si>
+    <t>haveSailors;haveEnoughSailors;dialogNoSailor2Sail_dock</t>
+  </si>
+  <si>
+    <t>sailDaysEnough;sailStart;sailScene;dialogDaysNotEnough_dock</t>
+  </si>
+  <si>
+    <t>showNeedNumber=cache.maxNumber-cache.currNumber</t>
+  </si>
+  <si>
+    <t>dialog_sail_without_enough_sailors;needFillFood;dock</t>
+  </si>
+  <si>
+    <t>dialog_sail_without_fillup;beforeSailPreparation;dock</t>
+  </si>
+  <si>
+    <t>setFillUpDialog</t>
+  </si>
+  <si>
+    <t>setFillUpMoney;setFillUpTemp;setFillUpDialog</t>
+  </si>
+  <si>
+    <t>moneyEnough;fillUpStart;fillUpPartial</t>
+  </si>
+  <si>
+    <t>needFillUp;shipFillFood;beforeSailPreparation</t>
   </si>
 </sst>
 </file>
@@ -2128,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2172,13 +2253,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -2214,7 +2295,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -2326,13 +2407,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -2340,7 +2421,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -2363,7 +2444,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,10 +2463,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
@@ -2405,7 +2486,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,7 +2500,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,7 +2514,7 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,7 +2556,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2483,18 +2564,18 @@
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
@@ -2517,7 +2598,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2531,7 +2612,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2553,18 +2634,18 @@
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>48</v>
@@ -2587,7 +2668,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2601,7 +2682,7 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,7 +2696,7 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2643,7 +2724,7 @@
         <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2655,7 +2736,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2669,7 +2750,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2688,7 +2769,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>89</v>
@@ -2697,7 +2778,7 @@
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2725,12 +2806,12 @@
         <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>97</v>
@@ -2739,12 +2820,12 @@
         <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>97</v>
@@ -2753,7 +2834,7 @@
         <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2767,12 +2848,12 @@
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>91</v>
@@ -2781,334 +2862,334 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>42</v>
@@ -3117,110 +3198,110 @@
         <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>64</v>
@@ -3229,253 +3310,253 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D94" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
         <v>231</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>40</v>
@@ -3486,357 +3567,357 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" t="s">
         <v>248</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D112" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D121" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D125" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D127" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D128" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B130" t="s">
         <v>18</v>
@@ -3845,169 +3926,169 @@
         <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B131" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D133" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D135" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D136" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D138" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D139" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D142" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D143" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>31</v>
@@ -4018,98 +4099,98 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B146" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>40</v>
@@ -4120,343 +4201,343 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D158" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D159" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D160" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D166" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B167" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D168" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D171" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D172" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D174" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" t="s">
         <v>378</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D175" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D177" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D179" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D180" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D181" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B182" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D182" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D183" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D184" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>31</v>
@@ -4467,366 +4548,366 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B186" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D187" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D188" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D189" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D190" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D191" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D193" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D194" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D195" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D197" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D201" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D204" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D206" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D208" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D209" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D210" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D212" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D213" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>40</v>
@@ -4837,10 +4918,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>40</v>
@@ -4851,10 +4932,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>40</v>
@@ -4865,45 +4946,45 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D217" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D219" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1" t="s">
@@ -4915,43 +4996,43 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C221" t="s">
         <v>23</v>
       </c>
       <c r="D221" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D222" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D223" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>40</v>
@@ -4962,138 +5043,138 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B225" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D225" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>516</v>
+      </c>
+      <c r="B226" t="s">
+        <v>517</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D226" t="s">
         <v>520</v>
-      </c>
-      <c r="B226" t="s">
-        <v>521</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D226" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>518</v>
+      </c>
+      <c r="B227" t="s">
         <v>522</v>
       </c>
-      <c r="B227" t="s">
-        <v>527</v>
-      </c>
       <c r="C227" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D227" t="s">
-        <v>526</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B228" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D228" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B229" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D229" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B230" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D230" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B231" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D231" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D232" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D233" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D234" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>31</v>
@@ -5104,107 +5185,243 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="B236" t="s">
+        <v>550</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="D236" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>549</v>
+        <v>551</v>
+      </c>
+      <c r="B237" t="s">
+        <v>552</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D237" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D238" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>553</v>
+        <v>94</v>
       </c>
       <c r="D239" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="D240" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>554</v>
-      </c>
-      <c r="B241" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="D241" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D242" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>561</v>
+        <v>542</v>
+      </c>
+      <c r="B243" t="s">
+        <v>547</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D243" t="s">
-        <v>60</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>555</v>
-      </c>
-      <c r="C244" s="1"/>
+        <v>578</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D244" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>518</v>
+        <v>40</v>
       </c>
       <c r="D245" t="s">
-        <v>523</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>577</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D246" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>545</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D247" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>553</v>
+      </c>
+      <c r="B248" t="s">
+        <v>554</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D248" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>556</v>
+      </c>
+      <c r="B249" t="s">
+        <v>557</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D249" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>566</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D250" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>560</v>
+      </c>
+      <c r="B251" t="s">
+        <v>564</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D251" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>563</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D252" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>561</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D253" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>562</v>
+      </c>
+      <c r="B254" t="s">
+        <v>559</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D254" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>521</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D255" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Documents/mygit/SailingGame/DataSource/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35000" yWindow="6540" windowWidth="32900" windowHeight="20820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="598">
   <si>
     <t>id</t>
   </si>
@@ -1271,9 +1266,6 @@
     <t>systemSetting</t>
   </si>
   <si>
-    <t>save;load;systemSetting;close</t>
-  </si>
-  <si>
     <t>sailMap</t>
   </si>
   <si>
@@ -1800,6 +1792,30 @@
   </si>
   <si>
     <t>needFillUp;shipFillFood;beforeSailPreparation</t>
+  </si>
+  <si>
+    <t>save;load;systemSetting;menuScene;close</t>
+  </si>
+  <si>
+    <t>menuScene</t>
+  </si>
+  <si>
+    <t>systemBackToMenu</t>
+  </si>
+  <si>
+    <t>返回主界面 选项</t>
+  </si>
+  <si>
+    <t>mainScene</t>
+  </si>
+  <si>
+    <t>menuSceneDialog</t>
+  </si>
+  <si>
+    <t>closeWindow;menuSceneDialog</t>
+  </si>
+  <si>
+    <t>dialog_back_to_menu;systemBackToMenu;systemList</t>
   </si>
 </sst>
 </file>
@@ -1812,6 +1828,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1855,8 +1872,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1868,13 +1891,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2209,13 +2238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="B208" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
@@ -2223,7 +2252,7 @@
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2237,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2265,7 +2294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2279,7 +2308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -2307,7 +2336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2321,7 +2350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2335,7 +2364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2349,7 +2378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +2406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2391,7 +2420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2405,23 +2434,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -2433,7 +2462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2444,10 +2473,10 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2461,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -2475,7 +2504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2489,7 +2518,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2503,7 +2532,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2517,7 +2546,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2531,7 +2560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2545,7 +2574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2559,7 +2588,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2573,7 +2602,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -2587,7 +2616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2598,10 +2627,10 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2612,10 +2641,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2629,7 +2658,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2643,7 +2672,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -2657,7 +2686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2671,7 +2700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2682,10 +2711,10 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2699,7 +2728,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -2713,7 +2742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2727,7 +2756,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2736,10 +2765,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2753,7 +2782,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2767,7 +2796,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -2781,7 +2810,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2795,7 +2824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2806,10 +2835,10 @@
         <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -2820,10 +2849,10 @@
         <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -2834,10 +2863,10 @@
         <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2851,7 +2880,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -2865,7 +2894,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2879,7 +2908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2893,7 +2922,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -2907,7 +2936,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -2919,7 +2948,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2931,7 +2960,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -2943,7 +2972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -2957,7 +2986,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -2969,7 +2998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -2981,7 +3010,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2995,7 +3024,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -3004,10 +3033,10 @@
         <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -3019,7 +3048,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -3031,7 +3060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -3045,7 +3074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -3057,7 +3086,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -3069,7 +3098,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -3081,7 +3110,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -3095,7 +3124,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -3107,7 +3136,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -3119,7 +3148,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>357</v>
       </c>
@@ -3131,7 +3160,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -3145,7 +3174,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -3159,7 +3188,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -3173,7 +3202,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>162</v>
       </c>
@@ -3184,10 +3213,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -3201,7 +3230,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -3215,7 +3244,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>185</v>
       </c>
@@ -3229,7 +3258,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -3243,7 +3272,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>183</v>
       </c>
@@ -3254,10 +3283,10 @@
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>181</v>
       </c>
@@ -3271,7 +3300,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -3285,7 +3314,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -3299,7 +3328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -3313,7 +3342,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -3324,10 +3353,10 @@
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>198</v>
       </c>
@@ -3341,7 +3370,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -3355,7 +3384,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>196</v>
       </c>
@@ -3369,7 +3398,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -3383,7 +3412,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -3397,7 +3426,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -3411,7 +3440,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -3425,7 +3454,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -3439,7 +3468,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>216</v>
       </c>
@@ -3453,7 +3482,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -3467,7 +3496,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>211</v>
       </c>
@@ -3481,7 +3510,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>222</v>
       </c>
@@ -3495,7 +3524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -3509,7 +3538,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>227</v>
       </c>
@@ -3523,7 +3552,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>230</v>
       </c>
@@ -3537,7 +3566,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>233</v>
       </c>
@@ -3551,7 +3580,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>236</v>
       </c>
@@ -3565,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>240</v>
       </c>
@@ -3579,7 +3608,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>242</v>
       </c>
@@ -3590,7 +3619,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>245</v>
       </c>
@@ -3601,7 +3630,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>243</v>
       </c>
@@ -3612,7 +3641,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>244</v>
       </c>
@@ -3623,7 +3652,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -3634,7 +3663,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>249</v>
       </c>
@@ -3645,7 +3674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -3656,7 +3685,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -3670,7 +3699,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>283</v>
       </c>
@@ -3681,7 +3710,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -3692,7 +3721,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>256</v>
       </c>
@@ -3703,7 +3732,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -3714,7 +3743,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>253</v>
       </c>
@@ -3725,7 +3754,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -3736,7 +3765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>255</v>
       </c>
@@ -3747,7 +3776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -3758,10 +3787,10 @@
         <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -3772,18 +3801,18 @@
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
+        <v>428</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" t="s">
         <v>429</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>263</v>
       </c>
@@ -3794,7 +3823,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>264</v>
       </c>
@@ -3805,7 +3834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>265</v>
       </c>
@@ -3816,7 +3845,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>268</v>
       </c>
@@ -3827,7 +3856,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>269</v>
       </c>
@@ -3835,76 +3864,76 @@
         <v>54</v>
       </c>
       <c r="D122" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>485</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D125" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D127" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D128" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -3915,7 +3944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>281</v>
       </c>
@@ -3929,7 +3958,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>298</v>
       </c>
@@ -3943,7 +3972,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>301</v>
       </c>
@@ -3954,7 +3983,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>304</v>
       </c>
@@ -3965,7 +3994,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -3976,7 +4005,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>309</v>
       </c>
@@ -3987,7 +4016,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>310</v>
       </c>
@@ -3998,7 +4027,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>300</v>
       </c>
@@ -4009,7 +4038,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>313</v>
       </c>
@@ -4020,7 +4049,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>314</v>
       </c>
@@ -4031,7 +4060,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>306</v>
       </c>
@@ -4042,7 +4071,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>307</v>
       </c>
@@ -4050,10 +4079,10 @@
         <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>321</v>
       </c>
@@ -4064,7 +4093,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>322</v>
       </c>
@@ -4075,7 +4104,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>308</v>
       </c>
@@ -4083,10 +4112,10 @@
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>325</v>
       </c>
@@ -4097,7 +4126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>326</v>
       </c>
@@ -4108,10 +4137,10 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>328</v>
       </c>
@@ -4122,7 +4151,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>337</v>
       </c>
@@ -4133,7 +4162,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>329</v>
       </c>
@@ -4144,7 +4173,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>339</v>
       </c>
@@ -4155,7 +4184,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>330</v>
       </c>
@@ -4166,7 +4195,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>333</v>
       </c>
@@ -4177,7 +4206,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>334</v>
       </c>
@@ -4188,7 +4217,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>335</v>
       </c>
@@ -4199,7 +4228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>342</v>
       </c>
@@ -4207,10 +4236,10 @@
         <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>343</v>
       </c>
@@ -4221,7 +4250,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>344</v>
       </c>
@@ -4232,7 +4261,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>376</v>
       </c>
@@ -4243,7 +4272,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>345</v>
       </c>
@@ -4254,7 +4283,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>348</v>
       </c>
@@ -4265,7 +4294,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>350</v>
       </c>
@@ -4276,7 +4305,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>351</v>
       </c>
@@ -4287,7 +4316,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>352</v>
       </c>
@@ -4298,7 +4327,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>354</v>
       </c>
@@ -4309,7 +4338,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>355</v>
       </c>
@@ -4320,7 +4349,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>359</v>
       </c>
@@ -4328,10 +4357,10 @@
         <v>147</v>
       </c>
       <c r="D166" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>361</v>
       </c>
@@ -4342,10 +4371,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>363</v>
       </c>
@@ -4356,7 +4385,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>365</v>
       </c>
@@ -4367,7 +4396,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>366</v>
       </c>
@@ -4378,7 +4407,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>367</v>
       </c>
@@ -4389,7 +4418,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>370</v>
       </c>
@@ -4400,7 +4429,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>371</v>
       </c>
@@ -4411,7 +4440,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>373</v>
       </c>
@@ -4419,10 +4448,10 @@
         <v>54</v>
       </c>
       <c r="D174" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>374</v>
       </c>
@@ -4433,7 +4462,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>375</v>
       </c>
@@ -4444,7 +4473,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>379</v>
       </c>
@@ -4455,7 +4484,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>381</v>
       </c>
@@ -4466,7 +4495,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>382</v>
       </c>
@@ -4477,7 +4506,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>384</v>
       </c>
@@ -4488,7 +4517,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>386</v>
       </c>
@@ -4496,10 +4525,10 @@
         <v>147</v>
       </c>
       <c r="D181" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>387</v>
       </c>
@@ -4513,7 +4542,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>388</v>
       </c>
@@ -4524,7 +4553,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>389</v>
       </c>
@@ -4535,7 +4564,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>390</v>
       </c>
@@ -4546,7 +4575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>394</v>
       </c>
@@ -4560,7 +4589,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>399</v>
       </c>
@@ -4571,88 +4600,88 @@
         <v>54</v>
       </c>
       <c r="D187" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D188" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>465</v>
-      </c>
       <c r="B189" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D189" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D190" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D191" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>471</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D193" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>396</v>
       </c>
@@ -4663,22 +4692,22 @@
         <v>54</v>
       </c>
       <c r="D194" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D195" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>397</v>
       </c>
@@ -4689,225 +4718,225 @@
         <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D197" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>419</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
+        <v>419</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="C199" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D201" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D204" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D206" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D208" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>502</v>
-      </c>
       <c r="B209" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D209" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D210" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>511</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D212" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D213" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>40</v>
@@ -4916,7 +4945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>398</v>
       </c>
@@ -4930,7 +4959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>400</v>
       </c>
@@ -4944,7 +4973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>407</v>
       </c>
@@ -4955,36 +4984,36 @@
         <v>40</v>
       </c>
       <c r="D217" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D219" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1" t="s">
@@ -4994,7 +5023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>409</v>
       </c>
@@ -5005,10 +5034,10 @@
         <v>23</v>
       </c>
       <c r="D221" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>411</v>
       </c>
@@ -5016,10 +5045,10 @@
         <v>54</v>
       </c>
       <c r="D222" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>412</v>
       </c>
@@ -5027,405 +5056,449 @@
         <v>54</v>
       </c>
       <c r="D223" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
+        <v>591</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>595</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D225" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>592</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
         <v>413</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="C227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>414</v>
+      </c>
+      <c r="B228" t="s">
         <v>415</v>
       </c>
-      <c r="B225" t="s">
-        <v>416</v>
-      </c>
-      <c r="C225" s="1" t="s">
+      <c r="C228" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D228" t="s">
         <v>514</v>
       </c>
-      <c r="D225" t="s">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="B229" t="s">
         <v>516</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C229" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D229" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
         <v>517</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D226" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>518</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="B230" t="s">
+        <v>521</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D230" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
         <v>522</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D227" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>523</v>
-      </c>
-      <c r="B228" t="s">
-        <v>525</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D228" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="B231" t="s">
         <v>524</v>
-      </c>
-      <c r="B229" t="s">
-        <v>526</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D229" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>530</v>
-      </c>
-      <c r="B230" t="s">
-        <v>531</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D230" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>532</v>
-      </c>
-      <c r="B231" t="s">
-        <v>533</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D231" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
+        <v>523</v>
+      </c>
+      <c r="B232" t="s">
+        <v>525</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D232" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>529</v>
+      </c>
+      <c r="B233" t="s">
+        <v>530</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D233" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>531</v>
+      </c>
+      <c r="B234" t="s">
+        <v>532</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>533</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D235" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
         <v>534</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="C236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>535</v>
-      </c>
-      <c r="C233" s="1" t="s">
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>527</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D237" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>526</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D238" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>547</v>
+      </c>
+      <c r="B239" t="s">
+        <v>549</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D239" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>550</v>
+      </c>
+      <c r="B240" t="s">
+        <v>551</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D240" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>528</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D234" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>527</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D235" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>548</v>
-      </c>
-      <c r="B236" t="s">
-        <v>550</v>
-      </c>
-      <c r="C236" s="1" t="s">
+      <c r="C241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>539</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D242" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>540</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D243" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>586</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D236" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>551</v>
-      </c>
-      <c r="B237" t="s">
-        <v>552</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D237" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>538</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="D244" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>542</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D245" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>540</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D239" t="s">
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>541</v>
+      </c>
+      <c r="B246" t="s">
+        <v>546</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D246" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>577</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D247" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>541</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D240" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>587</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D241" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
         <v>543</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D242" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>542</v>
-      </c>
-      <c r="B243" t="s">
-        <v>547</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D243" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>578</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D244" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>544</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D245" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>577</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="C248" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D248" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>545</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D247" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>553</v>
-      </c>
-      <c r="B248" t="s">
-        <v>554</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D248" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>556</v>
-      </c>
-      <c r="B249" t="s">
-        <v>557</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D249" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>544</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D250" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>552</v>
+      </c>
+      <c r="B251" t="s">
+        <v>553</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D251" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>555</v>
+      </c>
+      <c r="B252" t="s">
+        <v>556</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D252" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>565</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D253" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>559</v>
+      </c>
+      <c r="B254" t="s">
+        <v>563</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D254" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>562</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D255" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>560</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D256" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>561</v>
+      </c>
+      <c r="B257" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>566</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D250" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>560</v>
-      </c>
-      <c r="B251" t="s">
-        <v>564</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D251" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>563</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D252" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>561</v>
-      </c>
-      <c r="C253" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D257" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>562</v>
-      </c>
-      <c r="B254" t="s">
-        <v>559</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D254" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>521</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D255" t="s">
-        <v>519</v>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D258" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="614">
   <si>
     <t>id</t>
   </si>
@@ -1816,6 +1816,54 @@
   </si>
   <si>
     <t>dialog_back_to_menu;systemBackToMenu;systemList</t>
+  </si>
+  <si>
+    <t>taskList</t>
+  </si>
+  <si>
+    <t>城市任务</t>
+  </si>
+  <si>
+    <t>cityHasTasks;cityHasTasksEvent;cityHasNoTasksEvent</t>
+  </si>
+  <si>
+    <t>cityHasTasksEvent</t>
+  </si>
+  <si>
+    <t>cityHasNoTasksEvent</t>
+  </si>
+  <si>
+    <t>taskListCondition</t>
+  </si>
+  <si>
+    <t>closeWindow;taskListCondition</t>
+  </si>
+  <si>
+    <t>cityHasTasksDialog</t>
+  </si>
+  <si>
+    <t>cityHasNoTasksDialog</t>
+  </si>
+  <si>
+    <t>dialog_city_has_tasks</t>
+  </si>
+  <si>
+    <t>cityHasNoTasksDialog;</t>
+  </si>
+  <si>
+    <t>dialog_city_has_no_tasks;shop</t>
+  </si>
+  <si>
+    <t>cityTasksShowUp</t>
+  </si>
+  <si>
+    <t>显示城市任务;特殊选择</t>
+  </si>
+  <si>
+    <t>cityHasTasksDialog;cityTasksShowUp</t>
+  </si>
+  <si>
+    <t>cityTask</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1920,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1891,19 +1961,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2238,16 +2330,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B208" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5490,6 +5582,90 @@
       </c>
       <c r="D258" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>598</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>603</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>601</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D261" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>610</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>605</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D263" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>602</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D264" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>606</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D265" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Dropbox (Personal)/Code/gitCode/SalingGame/DataSource/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="6600" yWindow="460" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="624">
   <si>
     <t>id</t>
   </si>
@@ -135,9 +140,6 @@
     <t>buyShip;sellShip;modifyShip;fixShip;dockYard;close</t>
   </si>
   <si>
-    <t>buyItem;sellItem;taskList;mailLetter;close</t>
-  </si>
-  <si>
     <t>sail;supply;dockYard;close</t>
   </si>
   <si>
@@ -1864,6 +1866,39 @@
   </si>
   <si>
     <t>cityTask</t>
+  </si>
+  <si>
+    <t>taskBoard</t>
+  </si>
+  <si>
+    <t>taskPanelReceive</t>
+  </si>
+  <si>
+    <t>closeWindow;taskPanelReceive</t>
+  </si>
+  <si>
+    <t>buyItem;sellItem;taskList;cancelTask;mailLetter;close</t>
+  </si>
+  <si>
+    <t>cancelTask</t>
+  </si>
+  <si>
+    <t>取消任务</t>
+  </si>
+  <si>
+    <t>TaskPanel;shop;cityTasksShowUp;1</t>
+  </si>
+  <si>
+    <t>cancelTaskDialog</t>
+  </si>
+  <si>
+    <t>dialog_cancel_task_confirm;cancelTaskYes;</t>
+  </si>
+  <si>
+    <t>cancelTaskYes</t>
+  </si>
+  <si>
+    <t>guild;cancelTask</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1911,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2330,13 +2364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
@@ -2344,7 +2378,7 @@
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2358,7 +2392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2372,35 +2406,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2414,9 +2448,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -2428,7 +2462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2481,10 +2515,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2495,10 +2529,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2509,10 +2543,10 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2526,23 +2560,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -2554,7 +2588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2562,153 +2596,153 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2716,2965 +2750,3015 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>83</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B39" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="D45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="B47" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>109</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>110</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>114</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>137</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>138</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>142</v>
       </c>
-      <c r="D63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>143</v>
-      </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
         <v>147</v>
       </c>
-      <c r="D67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>124</v>
-      </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>185</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>181</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" t="s">
         <v>188</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>192</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>198</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>194</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>202</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>203</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="B86" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="B87" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="B88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>215</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+      <c r="B90" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>211</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D93" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>220</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="B96" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>230</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="B97" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="B98" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
         <v>241</v>
       </c>
-      <c r="C99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>242</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D100" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>245</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>243</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D102" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>244</v>
-      </c>
-      <c r="C103" s="1" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D103" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D104" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>249</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>250</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>251</v>
-      </c>
-      <c r="B107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>283</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D108" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>252</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D111" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>253</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D112" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>255</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>261</v>
-      </c>
-      <c r="B115" t="s">
-        <v>273</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+      <c r="D116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>427</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>262</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D116" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>428</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>263</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>265</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>483</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D120" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>268</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="D123" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>491</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>484</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>485</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>493</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>494</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D128" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D122" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>484</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D123" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>492</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D124" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>485</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>486</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>494</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D127" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>495</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D128" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>270</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D129" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>281</v>
       </c>
       <c r="B130" t="s">
         <v>18</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>297</v>
+      </c>
+      <c r="B131" t="s">
+        <v>302</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>300</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>303</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>298</v>
       </c>
-      <c r="B131" t="s">
-        <v>303</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>308</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>309</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D138" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>313</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D131" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>301</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>304</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>299</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>309</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D135" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>310</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>300</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="D140" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>313</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D138" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>314</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D139" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>306</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C141" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>307</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D141" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>321</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D142" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>322</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>308</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D144" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>325</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" t="s">
         <v>326</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>327</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D146" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+      <c r="D147" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>336</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>328</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>337</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D148" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>329</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>338</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" t="s">
         <v>339</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D150" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D151" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+      <c r="C152" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>333</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D152" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+      <c r="C153" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>334</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>335</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>341</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>342</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D155" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
+      <c r="C156" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>343</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>375</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D158" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>344</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D159" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>347</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D160" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>349</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D156" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>344</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="D163" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>358</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D166" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>360</v>
+      </c>
+      <c r="B167" t="s">
+        <v>361</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>362</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D157" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>376</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>345</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D159" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>348</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D160" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>350</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D161" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>351</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D162" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>352</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>354</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D164" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>355</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D165" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>359</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D166" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>361</v>
-      </c>
-      <c r="B167" t="s">
-        <v>362</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D167" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+      <c r="D168" t="s">
         <v>363</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D168" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+      <c r="C169" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>365</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D169" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+      <c r="C170" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>366</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D170" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>367</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+      <c r="C172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>370</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="C173" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>371</v>
-      </c>
-      <c r="C173" s="1" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D174" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>374</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D177" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>381</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>383</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D180" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>385</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D181" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>386</v>
+      </c>
+      <c r="B182" t="s">
+        <v>392</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>387</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D173" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>373</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D174" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>374</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D175" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>375</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D176" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>379</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D177" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>381</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D178" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>382</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D179" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>384</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D180" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>386</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D181" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>387</v>
-      </c>
-      <c r="B182" t="s">
-        <v>393</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>388</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="C184" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D184" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>389</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D184" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>390</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>393</v>
+      </c>
+      <c r="B186" t="s">
         <v>394</v>
-      </c>
-      <c r="B186" t="s">
-        <v>395</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D186" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>398</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>399</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="C187" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D187" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>458</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D188" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>463</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>459</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D188" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
+      <c r="C189" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D189" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>464</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D189" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+      <c r="B190" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D190" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>465</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D190" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>466</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D191" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>470</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D192" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D193" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D194" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D195" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D196" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D197" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>418</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D198" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>418</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D199" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D200" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D204" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D205" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D206" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" t="s">
         <v>499</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D208" t="s">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>501</v>
-      </c>
       <c r="B209" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D209" t="s">
         <v>503</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D209" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D210" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>510</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D211" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D212" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D213" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D215" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D216" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>406</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="C217" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D217" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D218" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D219" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D220" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>408</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="C221" t="s">
         <v>23</v>
       </c>
       <c r="D221" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>410</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D222" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>411</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D223" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>411</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D222" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>412</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D223" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
+      <c r="C224" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D224" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>594</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D225" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>591</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D224" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>595</v>
-      </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D225" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>592</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="D226" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D227" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>413</v>
+      </c>
+      <c r="B228" t="s">
         <v>414</v>
       </c>
-      <c r="B228" t="s">
-        <v>415</v>
-      </c>
       <c r="C228" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D228" t="s">
         <v>513</v>
       </c>
-      <c r="D228" t="s">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
         <v>515</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D229" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>516</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D229" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>517</v>
-      </c>
       <c r="B230" t="s">
+        <v>520</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>521</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="B231" t="s">
+        <v>523</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D231" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>522</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>524</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D232" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>523</v>
-      </c>
-      <c r="B232" t="s">
-        <v>525</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D232" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>528</v>
+      </c>
+      <c r="B233" t="s">
         <v>529</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>530</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D233" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
+      <c r="B234" t="s">
         <v>531</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D234" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>532</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D234" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
+      <c r="C235" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D235" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>533</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D235" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
-        <v>534</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D236" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D237" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D238" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B239" t="s">
+        <v>548</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D239" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>549</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="B240" t="s">
+        <v>550</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D240" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>550</v>
-      </c>
-      <c r="B240" t="s">
-        <v>551</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D240" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>536</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D241" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>538</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>539</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D243" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>537</v>
-      </c>
-      <c r="C241" s="1" t="s">
+      <c r="C244" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D244" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>541</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D245" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>539</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D242" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>540</v>
+      </c>
+      <c r="B246" t="s">
+        <v>545</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D246" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>576</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D247" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>540</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D243" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>586</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D244" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>542</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D245" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>541</v>
-      </c>
-      <c r="B246" t="s">
-        <v>546</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D246" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
-        <v>577</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="C248" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D248" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>575</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D249" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>543</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D248" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
-        <v>576</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D249" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
-        <v>544</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D250" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>551</v>
+      </c>
+      <c r="B251" t="s">
         <v>552</v>
       </c>
-      <c r="B251" t="s">
-        <v>553</v>
-      </c>
       <c r="C251" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D251" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>554</v>
+      </c>
+      <c r="B252" t="s">
+        <v>555</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D252" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>564</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D253" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>558</v>
+      </c>
+      <c r="B254" t="s">
+        <v>562</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D251" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
-        <v>555</v>
-      </c>
-      <c r="B252" t="s">
-        <v>556</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D252" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
-        <v>565</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D253" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
+      <c r="D254" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>561</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D255" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>559</v>
-      </c>
-      <c r="B254" t="s">
-        <v>563</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D254" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
-        <v>562</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D255" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
-        <v>560</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D256" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B257" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D257" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D258" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>597</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="C259" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D259" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D260" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
-        <v>601</v>
-      </c>
       <c r="C261" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D261" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>609</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
-        <v>610</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D263" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>601</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D264" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
-        <v>602</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D264" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D265" t="s">
-        <v>609</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>613</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D266" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>614</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D267" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>617</v>
+      </c>
+      <c r="B268" t="s">
+        <v>618</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>620</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D269" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>622</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D270" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="460" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="3820" yWindow="2960" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="645">
   <si>
     <t>id</t>
   </si>
@@ -1661,9 +1661,6 @@
     <t>fillUpPartialDialog</t>
   </si>
   <si>
-    <t>fillUpPartialDialog;fillUpStart</t>
-  </si>
-  <si>
     <t>todo</t>
   </si>
   <si>
@@ -1760,12 +1757,6 @@
     <t>fillUpStartDataChange</t>
   </si>
   <si>
-    <t>fillUpStartDataChange;beforeSailPreparation</t>
-  </si>
-  <si>
-    <t>closeWindow;haveShip</t>
-  </si>
-  <si>
     <t>haveShip;haveSailors;dialogNoShip2Sail_dock</t>
   </si>
   <si>
@@ -1781,9 +1772,6 @@
     <t>dialog_sail_without_enough_sailors;needFillFood;dock</t>
   </si>
   <si>
-    <t>dialog_sail_without_fillup;beforeSailPreparation;dock</t>
-  </si>
-  <si>
     <t>setFillUpDialog</t>
   </si>
   <si>
@@ -1899,6 +1887,81 @@
   </si>
   <si>
     <t>guild;cancelTask</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>主动补给</t>
+  </si>
+  <si>
+    <t>sailFlag=0</t>
+  </si>
+  <si>
+    <t>setSailFlagYes</t>
+  </si>
+  <si>
+    <t>sailFlag=1</t>
+  </si>
+  <si>
+    <t>setSailFlagNo</t>
+  </si>
+  <si>
+    <t>setSailFlagNo;shipFillFood</t>
+  </si>
+  <si>
+    <t>closeWindow;setSailFlagYes;haveShip</t>
+  </si>
+  <si>
+    <t>sailFlagIsYes</t>
+  </si>
+  <si>
+    <t>是否选择出港，或只是补给</t>
+  </si>
+  <si>
+    <t>isSailFlagYes;beforeSailPreparation;dock</t>
+  </si>
+  <si>
+    <t>dialog_sail_without_fillup;sailFlagIsYes;dock</t>
+  </si>
+  <si>
+    <t>needSupply</t>
+  </si>
+  <si>
+    <t>startedSupply</t>
+  </si>
+  <si>
+    <t>closeWindow;needSupply</t>
+  </si>
+  <si>
+    <t>noNeedSupply</t>
+  </si>
+  <si>
+    <t>不需要补给</t>
+  </si>
+  <si>
+    <t>needFillUp;startedSupply;noNeedSupply</t>
+  </si>
+  <si>
+    <t>dialogNoNeedSupply;dock</t>
+  </si>
+  <si>
+    <t>dialogNoNeedSupply</t>
+  </si>
+  <si>
+    <t>不需要补给对话</t>
+  </si>
+  <si>
+    <t>dialog_no_need_supply</t>
+  </si>
+  <si>
+    <t>fillUpPartialDialog;fillUpStartSetMoney;fillUpStart</t>
+  </si>
+  <si>
+    <t>fillUpMoneyChange</t>
+  </si>
+  <si>
+    <t>fillUpStartDataChange;fillUpMoneyChange;sailFlagIsYes</t>
   </si>
 </sst>
 </file>
@@ -2364,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2515,7 +2578,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2961,7 +3024,7 @@
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2975,7 +3038,7 @@
         <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,7 +3052,7 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3159,7 +3222,7 @@
         <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -5160,7 +5223,7 @@
         <v>23</v>
       </c>
       <c r="D221" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,38 +5250,38 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D224" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D225" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D226" t="s">
         <v>27</v>
@@ -5274,7 +5337,7 @@
         <v>39</v>
       </c>
       <c r="D230" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -5288,7 +5351,7 @@
         <v>40</v>
       </c>
       <c r="D231" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -5302,7 +5365,7 @@
         <v>40</v>
       </c>
       <c r="D232" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -5316,7 +5379,7 @@
         <v>40</v>
       </c>
       <c r="D233" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -5330,7 +5393,7 @@
         <v>40</v>
       </c>
       <c r="D234" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -5379,382 +5442,496 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B239" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D239" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>548</v>
+      </c>
+      <c r="B240" t="s">
         <v>549</v>
-      </c>
-      <c r="B240" t="s">
-        <v>550</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D240" t="s">
-        <v>584</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>536</v>
+        <v>620</v>
+      </c>
+      <c r="B241" t="s">
+        <v>621</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D241" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>538</v>
+        <v>632</v>
+      </c>
+      <c r="B242" t="s">
+        <v>531</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D242" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="D243" t="s">
-        <v>537</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>585</v>
+        <v>635</v>
+      </c>
+      <c r="B244" t="s">
+        <v>636</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="D244" t="s">
-        <v>553</v>
+        <v>638</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>541</v>
+        <v>639</v>
+      </c>
+      <c r="B245" t="s">
+        <v>640</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>587</v>
+        <v>641</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>540</v>
-      </c>
-      <c r="B246" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D246" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D247" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D248" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D249" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D250" t="s">
-        <v>59</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>551</v>
-      </c>
-      <c r="B251" t="s">
+        <v>581</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D251" t="s">
         <v>552</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D251" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>554</v>
-      </c>
-      <c r="B252" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D252" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>564</v>
+        <v>540</v>
+      </c>
+      <c r="B253" t="s">
+        <v>544</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="D253" t="s">
-        <v>563</v>
+        <v>644</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>558</v>
-      </c>
-      <c r="B254" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D254" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D255" t="s">
-        <v>568</v>
+        <v>147</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D256" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>560</v>
-      </c>
-      <c r="B257" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D257" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>512</v>
+        <v>31</v>
       </c>
       <c r="D258" t="s">
-        <v>517</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>597</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>598</v>
+        <v>628</v>
+      </c>
+      <c r="B259" t="s">
+        <v>629</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D259" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>602</v>
-      </c>
-      <c r="B260" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="B260" t="s">
+        <v>551</v>
+      </c>
       <c r="C260" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D260" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>600</v>
+        <v>553</v>
+      </c>
+      <c r="B261" t="s">
+        <v>554</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D261" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>609</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>612</v>
+        <v>126</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>604</v>
+        <v>557</v>
+      </c>
+      <c r="B263" t="s">
+        <v>561</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D263" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D264" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D265" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>613</v>
+        <v>559</v>
+      </c>
+      <c r="B266" t="s">
+        <v>556</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D266" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>53</v>
+        <v>512</v>
       </c>
       <c r="D267" t="s">
-        <v>619</v>
+        <v>517</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>617</v>
-      </c>
-      <c r="B268" t="s">
-        <v>618</v>
+        <v>593</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="D268" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>620</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="B269" s="1"/>
       <c r="C269" s="1" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="D269" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="C270" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D270" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>605</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>600</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D272" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>597</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D273" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>601</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>609</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>610</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D276" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>613</v>
+      </c>
+      <c r="B277" t="s">
+        <v>614</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>616</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D278" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>618</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D270" t="s">
-        <v>623</v>
+      <c r="D279" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="654">
   <si>
     <t>id</t>
   </si>
@@ -1838,12 +1838,6 @@
     <t>dialog_city_has_tasks</t>
   </si>
   <si>
-    <t>cityHasNoTasksDialog;</t>
-  </si>
-  <si>
-    <t>dialog_city_has_no_tasks;shop</t>
-  </si>
-  <si>
     <t>cityTasksShowUp</t>
   </si>
   <si>
@@ -1880,15 +1874,9 @@
     <t>cancelTaskDialog</t>
   </si>
   <si>
-    <t>dialog_cancel_task_confirm;cancelTaskYes;</t>
-  </si>
-  <si>
     <t>cancelTaskYes</t>
   </si>
   <si>
-    <t>guild;cancelTask</t>
-  </si>
-  <si>
     <t>supply</t>
   </si>
   <si>
@@ -1962,6 +1950,45 @@
   </si>
   <si>
     <t>fillUpStartDataChange;fillUpMoneyChange;sailFlagIsYes</t>
+  </si>
+  <si>
+    <t>guild;forsakeTask</t>
+  </si>
+  <si>
+    <t>cancelTaskCacheMoney</t>
+  </si>
+  <si>
+    <t>money=task.breakUpFee</t>
+  </si>
+  <si>
+    <t>cancelTaskMoneyEnough</t>
+  </si>
+  <si>
+    <t>cancelTaskSetTempDialog</t>
+  </si>
+  <si>
+    <t>cancelTaskProcess</t>
+  </si>
+  <si>
+    <t>moneyEnough;cancelTaskProcess;moneyNotEnoughDialog</t>
+  </si>
+  <si>
+    <t>cancelTaskMoneySpending</t>
+  </si>
+  <si>
+    <t>closeWindow;cancelTaskCacheMoney;cancelTaskSetTempDialog;cancelTaskDialog</t>
+  </si>
+  <si>
+    <t>cancelTaskMoneySpending;cancelTaskYes;shop</t>
+  </si>
+  <si>
+    <t>dialog_cancel_task_confirm;cancelTaskMoneyEnough;shop</t>
+  </si>
+  <si>
+    <t>dialog_city_has_no_tasks</t>
+  </si>
+  <si>
+    <t>cityHasNoTasksDialog;shop</t>
   </si>
 </sst>
 </file>
@@ -2427,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2578,7 +2605,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5337,7 +5364,7 @@
         <v>39</v>
       </c>
       <c r="D230" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -5465,26 +5492,26 @@
         <v>141</v>
       </c>
       <c r="D240" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B241" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D241" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B242" t="s">
         <v>531</v>
@@ -5493,68 +5520,68 @@
         <v>40</v>
       </c>
       <c r="D242" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D243" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B244" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D244" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B245" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D246" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D247" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -5623,7 +5650,7 @@
         <v>39</v>
       </c>
       <c r="D253" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -5639,7 +5666,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>146</v>
@@ -5656,7 +5683,7 @@
         <v>39</v>
       </c>
       <c r="D256" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -5683,16 +5710,16 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B259" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D259" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -5829,18 +5856,18 @@
         <v>39</v>
       </c>
       <c r="D270" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="D271" t="s">
         <v>7</v>
@@ -5865,7 +5892,7 @@
         <v>39</v>
       </c>
       <c r="D273" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -5876,62 +5903,120 @@
         <v>31</v>
       </c>
       <c r="D274" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>607</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" t="s">
         <v>609</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D275" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D276" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B277" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="D277" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="D278" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D279" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>614</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D280" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>644</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D281" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>646</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D282" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>648</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D279" t="s">
-        <v>619</v>
+      <c r="D283" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>615</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D284" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2960" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="3440" yWindow="1920" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eventAction.csv" sheetId="1" r:id="rId1"/>
@@ -1868,9 +1868,6 @@
     <t>取消任务</t>
   </si>
   <si>
-    <t>TaskPanel;shop;cityTasksShowUp;1</t>
-  </si>
-  <si>
     <t>cancelTaskDialog</t>
   </si>
   <si>
@@ -1989,6 +1986,9 @@
   </si>
   <si>
     <t>cityHasNoTasksDialog;shop</t>
+  </si>
+  <si>
+    <t>TaskPanel;shop;cityTasksShowUp;0</t>
   </si>
 </sst>
 </file>
@@ -2456,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5364,7 +5364,7 @@
         <v>39</v>
       </c>
       <c r="D230" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -5492,26 +5492,26 @@
         <v>141</v>
       </c>
       <c r="D240" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>615</v>
+      </c>
+      <c r="B241" t="s">
         <v>616</v>
       </c>
-      <c r="B241" t="s">
-        <v>617</v>
-      </c>
       <c r="C241" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D241" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B242" t="s">
         <v>531</v>
@@ -5520,68 +5520,68 @@
         <v>40</v>
       </c>
       <c r="D242" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D243" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>630</v>
+      </c>
+      <c r="B244" t="s">
         <v>631</v>
       </c>
-      <c r="B244" t="s">
-        <v>632</v>
-      </c>
       <c r="C244" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D244" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>634</v>
+      </c>
+      <c r="B245" t="s">
         <v>635</v>
-      </c>
-      <c r="B245" t="s">
-        <v>636</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D246" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D247" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -5650,7 +5650,7 @@
         <v>39</v>
       </c>
       <c r="D253" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -5666,7 +5666,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>146</v>
@@ -5683,7 +5683,7 @@
         <v>39</v>
       </c>
       <c r="D256" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -5710,16 +5710,16 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>623</v>
+      </c>
+      <c r="B259" t="s">
         <v>624</v>
-      </c>
-      <c r="B259" t="s">
-        <v>625</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D259" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -5892,7 +5892,7 @@
         <v>39</v>
       </c>
       <c r="D273" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>31</v>
       </c>
       <c r="D274" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -5925,7 +5925,7 @@
         <v>53</v>
       </c>
       <c r="D276" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -5939,23 +5939,23 @@
         <v>39</v>
       </c>
       <c r="D277" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D278" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>126</v>
@@ -5966,40 +5966,40 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D280" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D281" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D282" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>146</v>
@@ -6010,13 +6010,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D284" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/eventAction.xlsx
+++ b/DataSource/excel/eventAction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="664">
   <si>
     <t>id</t>
   </si>
@@ -1989,6 +1989,36 @@
   </si>
   <si>
     <t>TaskPanel;shop;cityTasksShowUp;0</t>
+  </si>
+  <si>
+    <t>taskInfoHasTask</t>
+  </si>
+  <si>
+    <t>接取了任务</t>
+  </si>
+  <si>
+    <t>taskInfoShowCurrentTask</t>
+  </si>
+  <si>
+    <t>taskInfoDialogNoTask</t>
+  </si>
+  <si>
+    <t>hasTask;taskInfoShowCurrentTask;taskInfoNoTask</t>
+  </si>
+  <si>
+    <t>taskInfoNoTask</t>
+  </si>
+  <si>
+    <t>taskInfoDialogNoTask;infoList</t>
+  </si>
+  <si>
+    <t>dialog_no_task_received</t>
+  </si>
+  <si>
+    <t>closeWindow;taskInfoHasTask</t>
+  </si>
+  <si>
+    <t>TaskPanel;infoList;infoList;1</t>
   </si>
 </sst>
 </file>
@@ -2454,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView tabSelected="1" topLeftCell="B202" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5172,850 +5202,900 @@
         <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>27</v>
+        <v>662</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>399</v>
+        <v>654</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>405</v>
+        <v>655</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>658</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>406</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>407</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="B217" s="1"/>
       <c r="C217" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D217" t="s">
-        <v>422</v>
+        <v>663</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>422</v>
+        <v>659</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D218" t="s">
-        <v>423</v>
+        <v>660</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>425</v>
+        <v>657</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D219" t="s">
-        <v>426</v>
+        <v>661</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>424</v>
-      </c>
-      <c r="B220" s="1"/>
+        <v>399</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="C220" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D220" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C221" t="s">
-        <v>23</v>
+        <v>407</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D221" t="s">
-        <v>585</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>410</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B222" s="1"/>
       <c r="C222" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D222" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>411</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B223" s="1"/>
       <c r="C223" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D223" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>586</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D224" t="s">
-        <v>591</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>590</v>
+        <v>408</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>141</v>
+        <v>409</v>
+      </c>
+      <c r="C225" t="s">
+        <v>23</v>
       </c>
       <c r="D225" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>587</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>587</v>
+        <v>410</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>589</v>
+        <v>53</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D227" t="s">
-        <v>27</v>
+        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>413</v>
-      </c>
-      <c r="B228" t="s">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>512</v>
+        <v>39</v>
       </c>
       <c r="D228" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>514</v>
-      </c>
-      <c r="B229" t="s">
-        <v>515</v>
+        <v>590</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>512</v>
+        <v>141</v>
       </c>
       <c r="D229" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>516</v>
-      </c>
-      <c r="B230" t="s">
-        <v>520</v>
+        <v>587</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
       <c r="D230" t="s">
-        <v>622</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>521</v>
-      </c>
-      <c r="B231" t="s">
-        <v>523</v>
+        <v>412</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D231" t="s">
-        <v>576</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>522</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
-        <v>524</v>
+        <v>414</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>40</v>
+        <v>512</v>
       </c>
       <c r="D232" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B233" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>40</v>
+        <v>512</v>
       </c>
       <c r="D233" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B234" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D234" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>532</v>
+        <v>521</v>
+      </c>
+      <c r="B235" t="s">
+        <v>523</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D235" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>533</v>
+        <v>522</v>
+      </c>
+      <c r="B236" t="s">
+        <v>524</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D236" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>526</v>
+        <v>528</v>
+      </c>
+      <c r="B237" t="s">
+        <v>529</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D237" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>525</v>
+        <v>530</v>
+      </c>
+      <c r="B238" t="s">
+        <v>531</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D238" t="s">
-        <v>86</v>
+        <v>584</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>545</v>
-      </c>
-      <c r="B239" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="D239" t="s">
-        <v>580</v>
+        <v>534</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>548</v>
-      </c>
-      <c r="B240" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D240" t="s">
-        <v>626</v>
+        <v>535</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>615</v>
-      </c>
-      <c r="B241" t="s">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D241" t="s">
-        <v>629</v>
+        <v>527</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>627</v>
-      </c>
-      <c r="B242" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D242" t="s">
-        <v>632</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>628</v>
+        <v>545</v>
+      </c>
+      <c r="B243" t="s">
+        <v>547</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D243" t="s">
-        <v>621</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
       <c r="B244" t="s">
-        <v>631</v>
+        <v>549</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D244" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="B245" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D245" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>620</v>
+        <v>627</v>
+      </c>
+      <c r="B246" t="s">
+        <v>531</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D246" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D247" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>536</v>
+        <v>630</v>
+      </c>
+      <c r="B248" t="s">
+        <v>631</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D248" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>538</v>
+        <v>634</v>
+      </c>
+      <c r="B249" t="s">
+        <v>635</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D249" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D250" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="D251" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D252" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>540</v>
-      </c>
-      <c r="B253" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D253" t="s">
-        <v>639</v>
+        <v>571</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D254" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D255" t="s">
-        <v>147</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D256" t="s">
-        <v>637</v>
+        <v>583</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>574</v>
+        <v>540</v>
+      </c>
+      <c r="B257" t="s">
+        <v>544</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D257" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="D258" t="s">
-        <v>59</v>
+        <v>572</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>623</v>
-      </c>
-      <c r="B259" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D259" t="s">
-        <v>625</v>
+        <v>147</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>550</v>
-      </c>
-      <c r="B260" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D260" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>553</v>
-      </c>
-      <c r="B261" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D261" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="D262" t="s">
-        <v>562</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="B263" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D263" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>560</v>
+        <v>550</v>
+      </c>
+      <c r="B264" t="s">
+        <v>551</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D264" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>558</v>
+        <v>553</v>
+      </c>
+      <c r="B265" t="s">
+        <v>554</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D265" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>559</v>
-      </c>
-      <c r="B266" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D266" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>519</v>
+        <v>557</v>
+      </c>
+      <c r="B267" t="s">
+        <v>561</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>512</v>
+        <v>40</v>
       </c>
       <c r="D267" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>593</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D268" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>598</v>
-      </c>
-      <c r="B269" s="1"/>
+        <v>558</v>
+      </c>
       <c r="C269" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D269" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>596</v>
+        <v>559</v>
+      </c>
+      <c r="B270" t="s">
+        <v>556</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D270" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>603</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>604</v>
+        <v>519</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>606</v>
+        <v>512</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>517</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>600</v>
+        <v>593</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D272" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>597</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D273" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D274" t="s">
-        <v>651</v>
+        <v>605</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>607</v>
+        <v>603</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>39</v>
+        <v>606</v>
       </c>
       <c r="D275" t="s">
-        <v>609</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D276" t="s">
-        <v>653</v>
+        <v>602</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>611</v>
-      </c>
-      <c r="B277" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D277" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D278" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="D279" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="D280" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>643</v>
+        <v>611</v>
+      </c>
+      <c r="B281" t="s">
+        <v>612</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D281" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D282" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D283" t="s">
-        <v>147</v>
+        <v>537</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>613</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D284" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>643</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D285" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>645</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D286" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>647</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D287" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>614</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D288" t="s">
         <v>640</v>
       </c>
     </row>
